--- a/infinite/Excel/ColdWeapon_冷兵器表.xlsx
+++ b/infinite/Excel/ColdWeapon_冷兵器表.xlsx
@@ -34,12 +34,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -49,7 +48,56 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF606266"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF667901"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,63 +118,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF606266"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,27 +126,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFF14BA9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,35 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -304,14 +247,14 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
@@ -320,11 +263,11 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -332,28 +275,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="165" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="166" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,300 +612,282 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="23" min="23" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="16" t="str">
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="2" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="16" t="str">
+      <c r="C1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="16" t="str">
+      <c r="D1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="6" t="str">
+      <c r="E1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="6" t="str">
+      <c r="F1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="16" t="str">
+      <c r="G1" s="2" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="16" t="str">
+      <c r="H1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="I1" s="15" t="str">
+      <c r="I1" s="2" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="15" t="str">
+      <c r="J1" s="2" t="str">
         <v>int</v>
       </c>
-      <c r="K1" s="15" t="str">
+      <c r="K1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="16" t="str">
+      <c r="L1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="M1" s="16" t="str">
+      <c r="M1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="N1" s="16" t="str">
+      <c r="N1" s="2" t="str">
         <v>vector3</v>
       </c>
-      <c r="O1" s="16" t="str">
+      <c r="O1" s="2" t="str">
         <v>vector3</v>
       </c>
-      <c r="P1" s="16" t="str">
+      <c r="P1" s="2" t="str">
         <v>vector3</v>
       </c>
-      <c r="Q1" s="6" t="str">
+      <c r="Q1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="16" t="str">
+    <row customHeight="true" ht="23" r="2">
+      <c r="A2" s="2" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="2" t="str">
         <v>jsons</v>
       </c>
-      <c r="C2" s="16" t="str">
+      <c r="C2" s="2" t="str">
         <v>rightWeaponGuid</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="1" t="str">
         <v>leftWeaponGuid</v>
       </c>
-      <c r="E2" s="6" t="str">
+      <c r="E2" s="1" t="str">
         <v>hitAnimation</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="1" t="str">
         <v>hitEffect</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="G2" s="1" t="str">
         <v>hitDamage</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" s="1" t="str">
         <v>Role</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="1" t="str">
         <v>RoleType</v>
       </c>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="1" t="str">
         <v>Price</v>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" s="1" t="str">
         <v>RoleIcon</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="L2" s="1" t="str">
         <v>StandbyAnimation</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="M2" s="1" t="str">
         <v>EffectId</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="N2" s="1" t="str">
         <v>EffectOffset</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O2" s="1" t="str">
         <v>EffectRot</v>
       </c>
-      <c r="P2" s="6" t="str">
+      <c r="P2" s="1" t="str">
         <v>EffectScale</v>
       </c>
-      <c r="Q2" s="6" t="str">
+      <c r="Q2" s="1" t="str">
         <v>Del</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="57" r="3">
-      <c r="A3" s="16" t="str">
+    <row customHeight="true" ht="61" r="3">
+      <c r="A3" s="2" t="str">
         <v>id</v>
       </c>
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="2" t="str">
         <v>动作数据</v>
       </c>
-      <c r="C3" s="16" t="str">
+      <c r="C3" s="2" t="str">
         <v>右手装备</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="1" t="str">
         <v>左手装备</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="1" t="str">
         <v>受击动画</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="1" t="str">
         <v>命中特效</v>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="1" t="str">
         <v>伤害</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="1" t="str">
         <v>角色</v>
       </c>
-      <c r="I3" s="4" t="str">
+      <c r="I3" s="1" t="str">
         <v>角色类型
 1-免费
 2-金币购买
 3-广告限时</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="1" t="str">
         <v>价格</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" s="1" t="str">
         <v>角色Icon</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="1" t="str">
         <v>待机动画</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="1" t="str">
         <v>特效id</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="1" t="str">
         <v>特效偏移</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="1" t="str">
         <v>特效旋转</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="1" t="str">
         <v>特效缩放</v>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="Q3" s="1" t="str">
         <v>注释</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+    <row customHeight="true" ht="23" r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="str">
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>118140</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>121409</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>117224</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="8">
         <v>142932</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <v>6666</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" s="9" t="str">
         <v>193337</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="5">
         <v>117391</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="5">
         <v>42830</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="5" t="str">
         <v>0|0|-20</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="5" t="str">
         <v>悟空</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="10">
         <v>0</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="str">
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B6" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1133,415 +1046,394 @@
     ]
 }</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>122953</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>121409</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>117224</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>10</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="8">
         <v>141618</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="5">
         <v>3000</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="9" t="str">
         <v>193356</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="5">
         <v>117391</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="5">
         <v>42821</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="N6" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="5" t="str">
         <v>赛博自来也</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="10">
         <v>0</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="str">
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"85125","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"84952","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","30","70"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"20267","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"84952","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-90","20","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"120","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>103073</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>121409</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>117224</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>142889</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="5">
         <v>8888</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" s="9" t="str">
         <v>193343</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="5">
         <v>117391</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="5">
         <v>42805</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q7" s="1" t="str">
+      <c r="Q7" s="5" t="str">
         <v>海王</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="10">
         <v>0</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="str">
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B8" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"4","guid":"145579","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"75351","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>118147</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>118147</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>121409</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>135892</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>10</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
         <v>142898</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
         <v>66666</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>193340</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="5">
         <v>121658</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="5">
         <v>42818</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="N8" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O8" s="1" t="str">
+      <c r="O8" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P8" s="1" t="str">
+      <c r="P8" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q8" s="1" t="str">
+      <c r="Q8" s="5" t="str">
         <v>美国队长</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="str">
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B9" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"150","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"160","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"75372","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"150","skillLength":"800","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C9" s="1" t="str"/>
-      <c r="D9" s="1" t="str"/>
-      <c r="E9" s="1">
+      <c r="C9" s="5" t="str"/>
+      <c r="D9" s="5" t="str"/>
+      <c r="E9" s="5">
         <v>121409</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>117224</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
         <v>142886</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="5">
         <v>100000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>193345</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="5">
         <v>121648</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="5">
         <v>42828</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="N9" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O9" s="1" t="str">
+      <c r="O9" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="P9" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q9" s="1" t="str">
+      <c r="Q9" s="5" t="str">
         <v>毒液</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="8">
         <v>0</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="str">
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="3">
+        <v>10006</v>
+      </c>
+      <c r="B10" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C10" s="1" t="str"/>
-      <c r="D10" s="1" t="str"/>
-      <c r="E10" s="1">
+      <c r="C10" s="5" t="str"/>
+      <c r="D10" s="5" t="str"/>
+      <c r="E10" s="5">
         <v>121409</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>89089</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="8">
         <v>142899</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="5">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="5">
         <v>120000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>193333</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="5">
         <v>117391</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="5">
         <v>42804</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="Q10" s="5" t="str">
         <v>灭霸拳套</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="8">
         <v>0</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="str">
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="3">
+        <v>10007</v>
+      </c>
+      <c r="B11" s="5" t="str">
         <v>{"charFightIdelAniId":"121557","infos":[{"type":"1","guid":"121575","duration":"900","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["160","10","20"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121574","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121573","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["130","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"80","skillWidth":"200"},{"type":"1","guid":"121572","duration":"1200","hitLength":"350","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135889","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-150","skillRadius":"0","skillHeight":"100","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"121571","duration":"1500","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"320","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"160","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135894","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"450","skillWidth":"200"}]}</v>
       </c>
-      <c r="C11" s="1" t="str"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="C11" s="5" t="str"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>121409</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>135892</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="8">
         <v>142925</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="5">
         <v>150000</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>193338</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="5">
         <v>121557</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="5">
         <v>42804</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="N11" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O11" s="1" t="str">
+      <c r="O11" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P11" s="1" t="str">
+      <c r="P11" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q11" s="1" t="str">
+      <c r="Q11" s="5" t="str">
         <v>鸣人</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="8">
         <v>0</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="str">
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B12" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="5" t="str">
         <v>2CBF95974B875F019A70A4985A63BA89</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="5" t="str">
         <v>2CBF95974B875F019A70A4985A63BA89</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>121409</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>135892</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>10</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="8" t="str">
         <v>EE5F536B4DD23D7B7684669580687A3C</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
         <v>200000</v>
       </c>
-      <c r="K12" s="5" t="str">
+      <c r="K12" s="9" t="str">
         <v>182102</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="5">
         <v>117403</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="5">
         <v>42821</v>
       </c>
-      <c r="N12" s="1" t="str">
+      <c r="N12" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O12" s="1" t="str">
+      <c r="O12" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P12" s="1" t="str">
+      <c r="P12" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q12" s="2" t="str">
+      <c r="Q12" s="8" t="str">
         <v>未来战士</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="8">
         <v>0</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="str">
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="3">
+        <v>10009</v>
+      </c>
+      <c r="B13" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1700,59 +1592,56 @@
     ]
 }</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
         <v>121409</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <v>163337</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <v>10</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="4">
         <v>142896</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="5">
         <v>5000</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="6">
         <v>164634</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <v>117391</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="4">
         <v>42805</v>
       </c>
-      <c r="N13" s="8" t="str">
+      <c r="N13" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="O13" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="P13" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q13" s="10" t="str">
+      <c r="Q13" s="4" t="str">
         <v>森林哨兵</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="str">
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B14" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1949,59 +1838,56 @@
     ]
 }</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <v>121409</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="4">
         <v>135892</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="4">
         <v>10</v>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="4" t="str">
         <v>90CDCFD5497992D511E6E38B7015C795</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="4">
         <v>2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="5">
         <v>20000</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="6">
         <v>164671</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="5">
         <v>117391</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="4">
         <v>42818</v>
       </c>
-      <c r="N14" s="8" t="str">
+      <c r="N14" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="O14" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P14" s="8" t="str">
+      <c r="P14" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q14" s="10" t="str">
+      <c r="Q14" s="4" t="str">
         <v>索尼克</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="str">
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="3">
+        <v>10011</v>
+      </c>
+      <c r="B15" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2198,59 +2084,56 @@
     ]
 }</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <v>121409</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>142950</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <v>10</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="4">
         <v>142901</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="4">
         <v>2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="5">
         <v>30000</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="6">
         <v>164652</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="5">
         <v>117391</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="5">
         <v>42804</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="N15" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O15" s="1" t="str">
+      <c r="O15" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P15" s="1" t="str">
+      <c r="P15" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q15" s="10" t="str">
+      <c r="Q15" s="4" t="str">
         <v>粉毛怪</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="str">
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="3">
+        <v>10012</v>
+      </c>
+      <c r="B16" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2523,59 +2406,56 @@
     ]
 }</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>121409</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <v>135892</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="4">
         <v>10</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="4">
         <v>142918</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="5">
         <v>2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="5">
         <v>88888</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="6">
         <v>164630</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="5">
         <v>111092</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="5">
         <v>42805</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="N16" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O16" s="1" t="str">
+      <c r="O16" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P16" s="1" t="str">
+      <c r="P16" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q16" s="8" t="str">
+      <c r="Q16" s="4" t="str">
         <v>纲手</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8" t="str">
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="3">
+        <v>10013</v>
+      </c>
+      <c r="B17" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2848,59 +2728,56 @@
     ]
 }</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
         <v>121409</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>135892</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>10</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="4">
         <v>142924</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="5">
         <v>2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="5">
         <v>88888</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="6">
         <v>164626</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="5">
         <v>117391</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="5">
         <v>42805</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="N17" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O17" s="1" t="str">
+      <c r="O17" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P17" s="1" t="str">
+      <c r="P17" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q17" s="8" t="str">
+      <c r="Q17" s="4" t="str">
         <v>李洛克</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8" t="str">
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="3">
+        <v>10014</v>
+      </c>
+      <c r="B18" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3021,61 +2898,58 @@
     ]
 }</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>103061</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
         <v>121409</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>168828</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>10</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="4">
         <v>142917</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="5">
         <v>2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <v>166666</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="6">
         <v>164648</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="5">
         <v>117391</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="4">
         <v>42818</v>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="O18" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P18" s="8" t="str">
+      <c r="P18" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q18" s="8" t="str">
+      <c r="Q18" s="4" t="str">
         <v>干柿鬼鲛</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="str">
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="3">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3690,59 +3564,56 @@
     ]
 }</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <v>121409</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>151551</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>10</v>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="4" t="str">
         <v>409EBB1E48B099BDC8F15192C6443591</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="5">
         <v>999999</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="4">
         <v>54193</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="5">
         <v>111092</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="5">
         <v>42804</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="N19" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O19" s="1" t="str">
+      <c r="O19" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P19" s="8" t="str">
+      <c r="P19" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q19" s="8" t="str">
+      <c r="Q19" s="4" t="str">
         <v>赛博女孩</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8" t="str">
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="3">
+        <v>10016</v>
+      </c>
+      <c r="B20" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4281,61 +4152,58 @@
     ]
 }</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>31712</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
         <v>121409</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>27422</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>10</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="4">
         <v>142891</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="5">
         <v>2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="5">
         <v>288888</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="6">
         <v>164656</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="5">
         <v>111092</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="5">
         <v>42804</v>
       </c>
-      <c r="N20" s="8" t="str">
+      <c r="N20" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O20" s="8" t="str">
+      <c r="O20" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P20" s="8" t="str">
+      <c r="P20" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q20" s="8" t="str">
+      <c r="Q20" s="4" t="str">
         <v>黑寡妇</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8" t="str">
+    <row customHeight="true" ht="23" r="21">
+      <c r="A21" s="3">
+        <v>10017</v>
+      </c>
+      <c r="B21" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4456,59 +4324,56 @@
     ]
 }</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
         <v>121409</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>13418</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>10</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="4">
         <v>142919</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="5">
         <v>2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="5">
         <v>128888</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="6">
         <v>164661</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="5">
         <v>117391</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="5">
         <v>42804</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="N21" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O21" s="1" t="str">
+      <c r="O21" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P21" s="1" t="str">
+      <c r="P21" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q21" s="8" t="str">
+      <c r="Q21" s="4" t="str">
         <v>怪物爪子</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8" t="str">
+    <row customHeight="true" ht="23" r="22">
+      <c r="A22" s="3">
+        <v>10018</v>
+      </c>
+      <c r="B22" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4971,59 +4836,56 @@
     ]
 }</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
         <v>121409</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>13418</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="4">
         <v>10</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="4">
         <v>142920</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="4">
         <v>2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="5">
         <v>688888</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="6">
         <v>164654</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="5">
         <v>117391</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="5">
         <v>42804</v>
       </c>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O22" s="8" t="str">
+      <c r="O22" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P22" s="8" t="str">
+      <c r="P22" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q22" s="8" t="str">
+      <c r="Q22" s="4" t="str">
         <v>卡卡西</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="10" t="str">
+    <row customHeight="true" ht="23" r="23">
+      <c r="A23" s="3">
+        <v>10019</v>
+      </c>
+      <c r="B23" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5372,59 +5234,56 @@
     ]
 }</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
         <v>121409</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>27421</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <v>10</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="4">
         <v>143231</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="4">
         <v>2</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="1">
         <v>488888</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="6">
         <v>164662</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="5">
         <v>117391</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="5">
         <v>42804</v>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O23" s="8" t="str">
+      <c r="O23" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P23" s="8" t="str">
+      <c r="P23" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q23" s="10" t="str">
+      <c r="Q23" s="4" t="str">
         <v>鼬</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10" t="str">
+    <row customHeight="true" ht="23" r="24">
+      <c r="A24" s="3">
+        <v>10020</v>
+      </c>
+      <c r="B24" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5659,59 +5518,56 @@
     ]
 }</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
         <v>121409</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>27421</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>10</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="4">
         <v>142915</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="4">
         <v>2</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="1">
         <v>100000</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="6">
         <v>164643</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="5">
         <v>117391</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="5">
         <v>42804</v>
       </c>
-      <c r="N24" s="8" t="str">
+      <c r="N24" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O24" s="8" t="str">
+      <c r="O24" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P24" s="8" t="str">
+      <c r="P24" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q24" s="10" t="str">
+      <c r="Q24" s="4" t="str">
         <v>大蛇丸</v>
       </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="10" t="str">
+    <row customHeight="true" ht="23" r="25">
+      <c r="A25" s="3">
+        <v>10021</v>
+      </c>
+      <c r="B25" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -6060,61 +5916,58 @@
     ]
 }</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="4">
         <v>31712</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
         <v>121409</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>27421</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4">
         <v>10</v>
       </c>
-      <c r="H25" s="10" t="str">
+      <c r="H25" s="4" t="str">
         <v>0D2FE7104CD5DE0291C71B964C7C7AAC</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="4">
         <v>2</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="1">
         <v>200000</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="4">
         <v>164672</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="5">
         <v>111092</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="4">
         <v>42805</v>
       </c>
-      <c r="N25" s="8" t="str">
+      <c r="N25" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O25" s="8" t="str">
+      <c r="O25" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P25" s="8" t="str">
+      <c r="P25" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q25" s="10" t="str">
+      <c r="Q25" s="4" t="str">
         <v>冰女</v>
       </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="10" t="str">
+    <row customHeight="true" ht="23" r="26">
+      <c r="A26" s="3">
+        <v>10022</v>
+      </c>
+      <c r="B26" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -6501,116 +6354,110 @@
     ]
 }</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
         <v>121409</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>27421</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="4">
         <v>10</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="4">
         <v>142138</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="1">
         <v>200000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="6">
         <v>164689</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="5">
         <v>117391</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="4">
         <v>42805</v>
       </c>
-      <c r="N26" s="8" t="str">
+      <c r="N26" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O26" s="8" t="str">
+      <c r="O26" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P26" s="8" t="str">
+      <c r="P26" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q26" s="10" t="str">
+      <c r="Q26" s="4" t="str">
         <v>兔子</v>
       </c>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="str">
+    <row customHeight="true" ht="23" r="27">
+      <c r="A27" s="3">
+        <v>10023</v>
+      </c>
+      <c r="B27" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120","moveSpeed":"300"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>118148</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
         <v>121409</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="5">
         <v>27422</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="5">
         <v>10</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="8">
         <v>142895</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="5">
         <v>3</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="7">
+      <c r="J27" s="5"/>
+      <c r="K27" s="8">
         <v>193334</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="5">
         <v>117391</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="5">
         <v>42805</v>
       </c>
-      <c r="N27" s="1" t="str">
+      <c r="N27" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O27" s="1" t="str">
+      <c r="O27" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P27" s="1" t="str">
+      <c r="P27" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q27" s="1" t="str">
+      <c r="Q27" s="5" t="str">
         <v>洛基</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="8">
         <v>0</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="str">
+    <row customHeight="true" ht="23" r="28">
+      <c r="A28" s="3">
+        <v>10024</v>
+      </c>
+      <c r="B28" s="5" t="str">
         <v>{
     "charFightIdelAniId": "117380",
     "infos": [
@@ -7394,352 +7241,334 @@
     ]
 }</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>103061</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
         <v>121409</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="5">
         <v>31122</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="5">
         <v>10</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="8">
         <v>141498</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="5">
         <v>3</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="7">
+      <c r="J28" s="5"/>
+      <c r="K28" s="8">
         <v>193346</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="5">
         <v>117391</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="5">
         <v>145912</v>
       </c>
-      <c r="N28" s="1" t="str">
+      <c r="N28" s="5" t="str">
         <v>0|0|10</v>
       </c>
-      <c r="O28" s="1" t="str">
+      <c r="O28" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P28" s="1" t="str">
+      <c r="P28" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q28" s="1" t="str">
+      <c r="Q28" s="5" t="str">
         <v>太阳神</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="8">
         <v>0</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="str">
+    <row customHeight="true" ht="23" r="29">
+      <c r="A29" s="3">
+        <v>10025</v>
+      </c>
+      <c r="B29" s="5" t="str">
         <v>{"charFightIdelAniId":"117403","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400"},{"type":"1","guid":"117382","duration":"1800","hitLength":"500","frontRockLength":"1300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123289","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"600","offsetPos":["280","0","-40"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123287","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"2500","offsetPos":["180","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"360","skillOffsetDis":"0","skillRadius":"320","skillHeight":"230","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>122956</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>122956</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>121409</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <v>27421</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="5">
         <v>10</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="8">
         <v>143229</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="7">
+      <c r="J29" s="5"/>
+      <c r="K29" s="8">
         <v>193349</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <v>117403</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="5">
         <v>42828</v>
       </c>
-      <c r="N29" s="1" t="str">
+      <c r="N29" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O29" s="1" t="str">
+      <c r="O29" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P29" s="1" t="str">
+      <c r="P29" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q29" s="1" t="str">
+      <c r="Q29" s="5" t="str">
         <v>宇智波斑</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="8">
         <v>0</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="str">
+    <row customHeight="true" ht="23" r="30">
+      <c r="A30" s="3">
+        <v>10026</v>
+      </c>
+      <c r="B30" s="5" t="str">
         <v>{"charFightIdelAniId":"111095","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"1","guid":"111102","duration":"600","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-15","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111100","duration":"1100","hitLength":"300","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116455","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>122949</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
         <v>121409</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="5">
         <v>27422</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="5">
         <v>10</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="8">
         <v>142255</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="5">
         <v>3</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2">
+      <c r="J30" s="5"/>
+      <c r="K30" s="8">
         <v>193336</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="5">
         <v>111095</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="5">
         <v>145907</v>
       </c>
-      <c r="N30" s="1" t="str">
+      <c r="N30" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O30" s="1" t="str">
+      <c r="O30" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P30" s="1" t="str">
+      <c r="P30" s="5" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Q30" s="1" t="str">
+      <c r="Q30" s="5" t="str">
         <v>纳米机甲女性</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="8">
         <v>1</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="str">
+    <row customHeight="true" ht="23" r="31">
+      <c r="A31" s="3">
+        <v>10027</v>
+      </c>
+      <c r="B31" s="5" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>122952</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="5">
         <v>122952</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
         <v>121409</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="5">
         <v>31122</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="5">
         <v>10</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="8">
         <v>142903</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="5">
         <v>3</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="7">
+      <c r="J31" s="5"/>
+      <c r="K31" s="8">
         <v>193344</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="5">
         <v>121951</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="5">
         <v>136966</v>
       </c>
-      <c r="N31" s="1" t="str">
+      <c r="N31" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O31" s="1" t="str">
+      <c r="O31" s="5" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="P31" s="1" t="str">
+      <c r="P31" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q31" s="1" t="str">
+      <c r="Q31" s="5" t="str">
         <v>死侍</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="8">
         <v>0</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="str">
+    <row customHeight="true" ht="23" r="32">
+      <c r="A32" s="3">
+        <v>10028</v>
+      </c>
+      <c r="B32" s="5" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>122946</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="5">
         <v>122946</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
         <v>121409</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="5">
         <v>31122</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="5">
         <v>10</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="8">
         <v>142293</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="5">
         <v>3</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="7">
+      <c r="J32" s="5"/>
+      <c r="K32" s="8">
         <v>193341</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="5">
         <v>121951</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="5">
         <v>145913</v>
       </c>
-      <c r="N32" s="1" t="str">
+      <c r="N32" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O32" s="1" t="str">
+      <c r="O32" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P32" s="1" t="str">
+      <c r="P32" s="5" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="Q32" s="2" t="str">
+      <c r="Q32" s="8" t="str">
         <v>火山哨兵</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="12">
         <v>0</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="str">
+    <row customHeight="true" ht="23" r="33">
+      <c r="A33" s="3">
+        <v>10029</v>
+      </c>
+      <c r="B33" s="5" t="str">
         <v>{"charFightIdelAniId":"111092","infos":[{"type":"1","guid":"111094","duration":"900","hitLength":"550","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["155","13","27"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111098","duration":"900","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","-10"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111099","duration":"1900","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113921","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-180","skillRadius":"0","skillHeight":"80","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"111097","duration":"1900","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113920","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","0"],"offsetRotation":["35","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>103061</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
         <v>121409</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="5">
         <v>31122</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="5">
         <v>10</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="8">
         <v>142262</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="8">
         <v>3</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8">
         <v>193348</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="5">
         <v>111092</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="5">
         <v>42816</v>
       </c>
-      <c r="N33" s="1" t="str">
+      <c r="N33" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O33" s="1" t="str">
+      <c r="O33" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P33" s="1" t="str">
+      <c r="P33" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q33" s="1" t="str">
+      <c r="Q33" s="5" t="str">
         <v>绯红女巫</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="12">
         <v>1</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="str">
+    <row customHeight="true" ht="23" r="34">
+      <c r="A34" s="3">
+        <v>10030</v>
+      </c>
+      <c r="B34" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -8278,607 +8107,574 @@
     ]
 }</v>
       </c>
-      <c r="C34" s="1" t="str"/>
-      <c r="D34" s="1" t="str"/>
-      <c r="E34" s="1">
+      <c r="C34" s="5" t="str"/>
+      <c r="D34" s="5" t="str"/>
+      <c r="E34" s="5">
         <v>121409</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="5">
         <v>135892</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="5">
         <v>10</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="8">
         <v>142888</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="8">
         <v>3</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="7">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
         <v>193355</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="5">
         <v>117391</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="5">
         <v>42804</v>
       </c>
-      <c r="N34" s="1" t="str">
+      <c r="N34" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O34" s="1" t="str">
+      <c r="O34" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P34" s="1" t="str">
+      <c r="P34" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q34" s="1" t="str">
+      <c r="Q34" s="5" t="str">
         <v>钢铁侠</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="11">
         <v>0</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1" t="str">
+    <row customHeight="true" ht="23" r="35">
+      <c r="A35" s="3">
+        <v>10031</v>
+      </c>
+      <c r="B35" s="5" t="str">
         <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>118147</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <v>118147</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="5">
         <v>121409</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="5">
         <v>135892</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="5">
         <v>10</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="8">
         <v>142894</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="8">
         <v>3</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="7">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
         <v>193351</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="5">
         <v>125369</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="5">
         <v>42818</v>
       </c>
-      <c r="N35" s="1" t="str">
+      <c r="N35" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O35" s="1" t="str">
+      <c r="O35" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P35" s="1" t="str">
+      <c r="P35" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q35" s="1" t="str">
+      <c r="Q35" s="5" t="str">
         <v>雷神</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="11">
         <v>0</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="str">
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="3">
+        <v>10032</v>
+      </c>
+      <c r="B36" s="5" t="str">
         <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
       </c>
-      <c r="C36" s="1" t="str"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
+      <c r="C36" s="5" t="str"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
         <v>121409</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="5">
         <v>117224</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="5">
         <v>10</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="8">
         <v>142907</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="8">
         <v>3</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="7">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8">
         <v>193350</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="5">
         <v>125369</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="5">
         <v>42804</v>
       </c>
-      <c r="N36" s="1" t="str">
+      <c r="N36" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O36" s="1" t="str">
+      <c r="O36" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P36" s="1" t="str">
+      <c r="P36" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q36" s="1" t="str">
+      <c r="Q36" s="5" t="str">
         <v>蜘蛛侠</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="11">
         <v>0</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="str">
+    <row customHeight="true" ht="23" r="37">
+      <c r="A37" s="3">
+        <v>10033</v>
+      </c>
+      <c r="B37" s="5" t="str">
         <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C37" s="1" t="str"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
+      <c r="C37" s="5" t="str"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <v>121409</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="5">
         <v>151551</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="5">
         <v>10</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="8">
         <v>142892</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="8">
         <v>3</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="7">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8">
         <v>193352</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="5">
         <v>121608</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="5">
         <v>42804</v>
       </c>
-      <c r="N37" s="1" t="str">
+      <c r="N37" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O37" s="1" t="str">
+      <c r="O37" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P37" s="1" t="str">
+      <c r="P37" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q37" s="1" t="str">
+      <c r="Q37" s="5" t="str">
         <v>金刚狼</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="11">
         <v>0</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1" t="str">
+    <row customHeight="true" ht="23" r="38">
+      <c r="A38" s="3">
+        <v>10034</v>
+      </c>
+      <c r="B38" s="5" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
       </c>
-      <c r="C38" s="1" t="str"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
+      <c r="C38" s="5" t="str"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5">
         <v>121409</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="5">
         <v>89089</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="5">
         <v>10</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="8">
         <v>142294</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="5">
         <v>3</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="7">
+      <c r="J38" s="5"/>
+      <c r="K38" s="8">
         <v>193332</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="5">
         <v>121610</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="5">
         <v>42805</v>
       </c>
-      <c r="N38" s="1" t="str">
+      <c r="N38" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O38" s="1" t="str">
+      <c r="O38" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P38" s="1" t="str">
+      <c r="P38" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q38" s="1" t="str">
+      <c r="Q38" s="5" t="str">
         <v>女浩克</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="11">
         <v>1</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1" t="str">
+    <row customHeight="true" ht="23" r="39">
+      <c r="A39" s="3">
+        <v>10035</v>
+      </c>
+      <c r="B39" s="5" t="str">
         <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
       </c>
-      <c r="C39" s="1" t="str"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
+      <c r="C39" s="5" t="str"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <v>121409</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="5">
         <v>89089</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="5">
         <v>10</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="8">
         <v>142897</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="5">
         <v>3</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="7">
+      <c r="J39" s="5"/>
+      <c r="K39" s="8">
         <v>193342</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="5">
         <v>121610</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="5">
         <v>42805</v>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="N39" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O39" s="1" t="str">
+      <c r="O39" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P39" s="1" t="str">
+      <c r="P39" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q39" s="1" t="str">
+      <c r="Q39" s="5" t="str">
         <v>绿巨人</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="11">
         <v>0</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="str">
+    <row customHeight="true" ht="23" r="40">
+      <c r="A40" s="3">
+        <v>10036</v>
+      </c>
+      <c r="B40" s="5" t="str">
         <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
       </c>
-      <c r="C40" s="1" t="str"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
+      <c r="C40" s="5" t="str"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
         <v>121409</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="5">
         <v>27421</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="5">
         <v>10</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="8">
         <v>142310</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="5">
         <v>3</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="7">
+      <c r="J40" s="5"/>
+      <c r="K40" s="8">
         <v>193354</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="5">
         <v>117391</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="5">
         <v>42804</v>
       </c>
-      <c r="N40" s="1" t="str">
+      <c r="N40" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O40" s="1" t="str">
+      <c r="O40" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P40" s="1" t="str">
+      <c r="P40" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q40" s="1" t="str">
+      <c r="Q40" s="5" t="str">
         <v>天神</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="7">
         <v>0</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="str">
+    <row customHeight="true" ht="23" r="41">
+      <c r="A41" s="3">
+        <v>10037</v>
+      </c>
+      <c r="B41" s="5" t="str">
         <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C41" s="1" t="str"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
+      <c r="C41" s="5" t="str"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
         <v>121409</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="5">
         <v>27421</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="5">
         <v>10</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="8">
         <v>142272</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="5">
         <v>3</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2">
+      <c r="J41" s="5"/>
+      <c r="K41" s="8">
         <v>193347</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="5">
         <v>108371</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="5">
         <v>42818</v>
       </c>
-      <c r="N41" s="1" t="str">
+      <c r="N41" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O41" s="1" t="str">
+      <c r="O41" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P41" s="1" t="str">
+      <c r="P41" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q41" s="1" t="str">
+      <c r="Q41" s="5" t="str">
         <v>机甲少女</v>
       </c>
-      <c r="R41" s="9">
+      <c r="R41" s="7">
         <v>1</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="str">
+    <row customHeight="true" ht="23" r="42">
+      <c r="A42" s="3">
+        <v>10038</v>
+      </c>
+      <c r="B42" s="5" t="str">
         <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
       </c>
-      <c r="C42" s="1" t="str"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
+      <c r="C42" s="5" t="str"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
         <v>121409</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="5">
         <v>135892</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="5">
         <v>10</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="8">
         <v>142913</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="5">
         <v>3</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2">
+      <c r="J42" s="5"/>
+      <c r="K42" s="8">
         <v>193339</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="5">
         <v>117340</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="5">
         <v>42816</v>
       </c>
-      <c r="N42" s="1" t="str">
+      <c r="N42" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O42" s="1" t="str">
+      <c r="O42" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P42" s="1" t="str">
+      <c r="P42" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q42" s="1" t="str">
+      <c r="Q42" s="5" t="str">
         <v>雏田</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="7">
         <v>1</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="str">
+    <row customHeight="true" ht="23" r="43">
+      <c r="A43" s="3">
+        <v>10039</v>
+      </c>
+      <c r="B43" s="5" t="str">
         <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
       </c>
-      <c r="C43" s="1" t="str"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1">
+      <c r="C43" s="5" t="str"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <v>121409</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="5">
         <v>135892</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="5">
         <v>10</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="8">
         <v>142922</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="5">
         <v>3</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="7">
+      <c r="J43" s="5"/>
+      <c r="K43" s="8">
         <v>193353</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="5">
         <v>122541</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="5">
         <v>42804</v>
       </c>
-      <c r="N43" s="1" t="str">
+      <c r="N43" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O43" s="1" t="str">
+      <c r="O43" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P43" s="1" t="str">
+      <c r="P43" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q43" s="1" t="str">
+      <c r="Q43" s="5" t="str">
         <v>路飞</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R43" s="7">
         <v>0</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1" t="str">
+    <row customHeight="true" ht="23" r="44">
+      <c r="A44" s="3">
+        <v>10040</v>
+      </c>
+      <c r="B44" s="5" t="str">
         <v>{"charFightIdelAniId":"125369","infos":[{"type":"1","guid":"117326","duration":"500","hitLength":"200","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"300","offsetPos":["60","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["0.5","0.5","0.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"117328","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130639","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"300","offsetPos":["0","0","0"],"offsetRotation":["30","40","-48"],"offsetScale":["0.6","0.6","0.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"100","skillWidth":"80"},{"type":"1","guid":"117327","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["-1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"450"},{"type":"1","guid":"117316","duration":"800","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"100","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120"},{"type":"1","guid":"117315","duration":"800","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["-50","0","0"],"offsetRotation":["-140","0","-270"],"offsetScale":["1","1.5","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["250","50","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1200","offsetPos":["380","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1200","offsetPos":["500","50","-80s"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"400","skillLength":"500","skillWidth":"150"},{"type":"1","guid":"117324","duration":"1600","hitLength":"1100","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"114161","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"700","offsetPos":["0","0","-75"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130743","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130640","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1050","slotIndex":"-1","stopTime":"1500","offsetPos":["600","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"150","skillLength":"550","skillWidth":"150"}]}</v>
       </c>
-      <c r="C44" s="1" t="str"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1">
+      <c r="C44" s="5" t="str"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
         <v>121409</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="5">
         <v>135892</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="5">
         <v>10</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="8">
         <v>143236</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="5">
         <v>3</v>
       </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="7">
+      <c r="J44" s="5"/>
+      <c r="K44" s="8">
         <v>193335</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="5">
         <v>125369</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="5">
         <v>42818</v>
       </c>
-      <c r="N44" s="1" t="str">
+      <c r="N44" s="5" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O44" s="1" t="str">
+      <c r="O44" s="5" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P44" s="1" t="str">
+      <c r="P44" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q44" s="1" t="str">
+      <c r="Q44" s="5" t="str">
         <v>佐助</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R44" s="7">
         <v>0</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/infinite/Excel/ColdWeapon_冷兵器表.xlsx
+++ b/infinite/Excel/ColdWeapon_冷兵器表.xlsx
@@ -48,6 +48,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,7 +62,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,14 +76,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF270561"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,7 +111,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,20 +126,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7F3BF5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,7 +254,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
@@ -266,22 +266,22 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
@@ -635,259 +635,259 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="6" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="6" t="str">
         <v>jsons</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="6" t="str">
         <v>rightWeaponGuid</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>leftWeaponGuid</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>hitAnimation</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>hitEffect</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>hitDamage</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>Role</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>RoleType</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="J2" s="2" t="str">
         <v>Price</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="K2" s="2" t="str">
         <v>RoleIcon</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="L2" s="2" t="str">
         <v>StandbyAnimation</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="M2" s="2" t="str">
         <v>EffectId</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="N2" s="2" t="str">
         <v>EffectOffset</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="O2" s="2" t="str">
         <v>EffectRot</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="P2" s="2" t="str">
         <v>EffectScale</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="Q2" s="2" t="str">
         <v>Del</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row customHeight="true" ht="61" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="6" t="str">
         <v>id</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="6" t="str">
         <v>动作数据</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="6" t="str">
         <v>右手装备</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>左手装备</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>受击动画</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>命中特效</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>伤害</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>角色</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <v>角色类型
 1-免费
 2-金币购买
 3-广告限时</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="J3" s="2" t="str">
         <v>价格</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" s="2" t="str">
         <v>角色Icon</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="L3" s="2" t="str">
         <v>待机动画</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="2" t="str">
         <v>特效id</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="N3" s="2" t="str">
         <v>特效偏移</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="2" t="str">
         <v>特效旋转</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="2" t="str">
         <v>特效缩放</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="2" t="str">
         <v>注释</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>10001</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>118140</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>121409</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>117224</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>142932</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="1">
         <v>6666</v>
       </c>
-      <c r="K5" s="9" t="str">
+      <c r="K5" s="11" t="str">
         <v>193337</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="1">
         <v>117391</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="1">
         <v>42830</v>
       </c>
-      <c r="N5" s="5" t="str">
+      <c r="N5" s="1" t="str">
         <v>0|0|-20</v>
       </c>
-      <c r="O5" s="5" t="str">
+      <c r="O5" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P5" s="5" t="str">
+      <c r="P5" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q5" s="5" t="str">
+      <c r="Q5" s="1" t="str">
         <v>悟空</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="12">
         <v>0</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>10002</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1046,394 +1046,402 @@
     ]
 }</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>122953</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>121409</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>117224</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="3">
         <v>141618</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="1">
         <v>3000</v>
       </c>
-      <c r="K6" s="9" t="str">
+      <c r="K6" s="11" t="str">
         <v>193356</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="1">
         <v>117391</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="1">
         <v>42821</v>
       </c>
-      <c r="N6" s="5" t="str">
+      <c r="N6" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O6" s="5" t="str">
+      <c r="O6" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P6" s="5" t="str">
+      <c r="P6" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q6" s="5" t="str">
+      <c r="Q6" s="1" t="str">
         <v>赛博自来也</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="12">
         <v>0</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>10003</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"85125","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"84952","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","30","70"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"20267","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"84952","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-90","20","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"120","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C7" s="5">
-        <v>103073</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
+      <c r="C7" s="1">
+        <v>118146</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>121409</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>117224</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>142889</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1">
         <v>8888</v>
       </c>
-      <c r="K7" s="9" t="str">
+      <c r="K7" s="11" t="str">
         <v>193343</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
         <v>117391</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="1">
         <v>42805</v>
       </c>
-      <c r="N7" s="5" t="str">
+      <c r="N7" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O7" s="5" t="str">
+      <c r="O7" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P7" s="5" t="str">
+      <c r="P7" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q7" s="5" t="str">
+      <c r="Q7" s="1" t="str">
         <v>海王</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="12">
         <v>0</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>10004</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"4","guid":"145579","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"75351","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C8" s="5">
-        <v>118147</v>
-      </c>
-      <c r="D8" s="5">
-        <v>118147</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="1">
+        <v>152954</v>
+      </c>
+      <c r="D8" s="1">
+        <v>152954</v>
+      </c>
+      <c r="E8" s="1">
         <v>121409</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>135892</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="3">
         <v>142898</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="1">
         <v>66666</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="3">
         <v>193340</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="1">
         <v>121658</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="1">
         <v>42818</v>
       </c>
-      <c r="N8" s="5" t="str">
+      <c r="N8" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O8" s="5" t="str">
+      <c r="O8" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P8" s="5" t="str">
+      <c r="P8" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q8" s="5" t="str">
+      <c r="Q8" s="1" t="str">
         <v>美国队长</v>
       </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="R8" s="3" t="str">
+        <v>神锤</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>10005</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"150","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"160","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"75372","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"150","skillLength":"800","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C9" s="5" t="str"/>
-      <c r="D9" s="5" t="str"/>
-      <c r="E9" s="5">
+      <c r="C9" s="1">
+        <v>118143</v>
+      </c>
+      <c r="D9" s="1" t="str"/>
+      <c r="E9" s="1">
         <v>121409</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>117224</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="3">
         <v>142886</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="1">
         <v>100000</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="3">
         <v>193345</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="1">
         <v>121648</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="1">
         <v>42828</v>
       </c>
-      <c r="N9" s="5" t="str">
+      <c r="N9" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O9" s="5" t="str">
+      <c r="O9" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P9" s="5" t="str">
+      <c r="P9" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q9" s="5" t="str">
+      <c r="Q9" s="1" t="str">
         <v>毒液</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>10006</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C10" s="5" t="str"/>
-      <c r="D10" s="5" t="str"/>
-      <c r="E10" s="5">
+      <c r="C10" s="1">
+        <v>122960</v>
+      </c>
+      <c r="D10" s="1">
+        <v>122960</v>
+      </c>
+      <c r="E10" s="1">
         <v>121409</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>89089</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>142899</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="1">
         <v>120000</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="3">
         <v>193333</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="1">
         <v>117391</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="1">
         <v>42804</v>
       </c>
-      <c r="N10" s="5" t="str">
+      <c r="N10" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O10" s="5" t="str">
+      <c r="O10" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P10" s="5" t="str">
+      <c r="P10" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q10" s="5" t="str">
+      <c r="Q10" s="1" t="str">
         <v>灭霸拳套</v>
       </c>
-      <c r="R10" s="8">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="R10" s="3" t="str">
+        <v>斧头</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10007</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="1" t="str">
         <v>{"charFightIdelAniId":"121557","infos":[{"type":"1","guid":"121575","duration":"900","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["160","10","20"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121574","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121573","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["130","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"80","skillWidth":"200"},{"type":"1","guid":"121572","duration":"1200","hitLength":"350","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135889","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-150","skillRadius":"0","skillHeight":"100","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"121571","duration":"1500","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"320","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"160","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135894","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"450","skillWidth":"200"}]}</v>
       </c>
-      <c r="C11" s="5" t="str"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
+      <c r="C11" s="1">
+        <v>33861</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>121409</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>135892</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>142925</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="1">
         <v>150000</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="3">
         <v>193338</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="1">
         <v>121557</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="1">
         <v>42804</v>
       </c>
-      <c r="N11" s="5" t="str">
+      <c r="N11" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O11" s="5" t="str">
+      <c r="O11" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P11" s="5" t="str">
+      <c r="P11" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q11" s="5" t="str">
+      <c r="Q11" s="1" t="str">
         <v>鸣人</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>10008</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <v>2CBF95974B875F019A70A4985A63BA89</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <v>2CBF95974B875F019A70A4985A63BA89</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="C12" s="4">
+        <v>218730</v>
+      </c>
+      <c r="D12" s="1">
+        <v>218730</v>
+      </c>
+      <c r="E12" s="1">
         <v>121409</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>135892</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="3" t="str">
         <v>EE5F536B4DD23D7B7684669580687A3C</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="1">
         <v>200000</v>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K12" s="11" t="str">
         <v>182102</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="1">
         <v>117403</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="1">
         <v>42821</v>
       </c>
-      <c r="N12" s="5" t="str">
+      <c r="N12" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O12" s="5" t="str">
+      <c r="O12" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P12" s="5" t="str">
+      <c r="P12" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q12" s="8" t="str">
+      <c r="Q12" s="3" t="str">
         <v>未来战士</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>10009</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1592,56 +1600,58 @@
     ]
 }</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="C13" s="4">
+        <v>210791</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>121409</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>163337</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="7">
         <v>142896</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="1">
         <v>5000</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="8">
         <v>164634</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="1">
         <v>117391</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="7">
         <v>42805</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="N13" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O13" s="4" t="str">
+      <c r="O13" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P13" s="4" t="str">
+      <c r="P13" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q13" s="4" t="str">
+      <c r="Q13" s="7" t="str">
         <v>森林哨兵</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>10010</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1838,56 +1848,62 @@
     ]
 }</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="C14" s="4">
+        <v>221099</v>
+      </c>
+      <c r="D14" s="7">
+        <v>221099</v>
+      </c>
+      <c r="E14" s="7">
         <v>121409</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>135892</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <v>10</v>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="H14" s="7" t="str">
         <v>90CDCFD5497992D511E6E38B7015C795</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="7">
         <v>2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="1">
         <v>20000</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="8">
         <v>164671</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="1">
         <v>117391</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="7">
         <v>42818</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="N14" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="O14" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P14" s="4" t="str">
+      <c r="P14" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q14" s="4" t="str">
+      <c r="Q14" s="7" t="str">
         <v>索尼克</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="R14" s="9" t="str">
+        <v>手枪</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2084,56 +2100,62 @@
     ]
 }</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="C15" s="4">
+        <v>43702</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43702</v>
+      </c>
+      <c r="E15" s="7">
         <v>121409</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>142950</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>10</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="7">
         <v>142901</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="7">
         <v>2</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="1">
         <v>30000</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="8">
         <v>164652</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="1">
         <v>117391</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="1">
         <v>42804</v>
       </c>
-      <c r="N15" s="5" t="str">
+      <c r="N15" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O15" s="5" t="str">
+      <c r="O15" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P15" s="5" t="str">
+      <c r="P15" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q15" s="4" t="str">
+      <c r="Q15" s="7" t="str">
         <v>粉毛怪</v>
       </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="R15" s="9" t="str">
+        <v>信号枪</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2406,56 +2428,60 @@
     ]
 }</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="C16" s="4">
+        <v>103067</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>121409</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>135892</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>10</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <v>142918</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="1">
         <v>88888</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="8">
         <v>164630</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="1">
         <v>111092</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="1">
         <v>42805</v>
       </c>
-      <c r="N16" s="5" t="str">
+      <c r="N16" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O16" s="5" t="str">
+      <c r="O16" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P16" s="5" t="str">
+      <c r="P16" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q16" s="4" t="str">
+      <c r="Q16" s="7" t="str">
         <v>纲手</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="9" t="str">
+        <v>刀</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>10013</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2728,56 +2754,60 @@
     ]
 }</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="C17" s="4">
+        <v>103080</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>121409</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>135892</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <v>10</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7">
         <v>142924</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="1">
         <v>88888</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="8">
         <v>164626</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="1">
         <v>117391</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="1">
         <v>42805</v>
       </c>
-      <c r="N17" s="5" t="str">
+      <c r="N17" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O17" s="5" t="str">
+      <c r="O17" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P17" s="5" t="str">
+      <c r="P17" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q17" s="4" t="str">
+      <c r="Q17" s="7" t="str">
         <v>李洛克</v>
       </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="R17" s="9" t="str">
+        <v>刀</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>10014</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2899,57 +2929,59 @@
 }</v>
       </c>
       <c r="C18" s="4">
-        <v>103061</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+        <v>103075</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
         <v>121409</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>168828</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <v>10</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="7">
         <v>142917</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="1">
         <v>2</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="1">
         <v>166666</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="8">
         <v>164648</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="1">
         <v>117391</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="7">
         <v>42818</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="N18" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O18" s="4" t="str">
+      <c r="O18" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P18" s="4" t="str">
+      <c r="P18" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q18" s="4" t="str">
+      <c r="Q18" s="7" t="str">
         <v>干柿鬼鲛</v>
       </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="R18" s="9" t="str">
+        <v>镰刀</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>10015</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3564,56 +3596,60 @@
     ]
 }</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="C19" s="4">
+        <v>122946</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
         <v>121409</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>151551</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="7">
         <v>10</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="H19" s="7" t="str">
         <v>409EBB1E48B099BDC8F15192C6443591</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="1">
         <v>999999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="7">
         <v>54193</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="1">
         <v>111092</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="1">
         <v>42804</v>
       </c>
-      <c r="N19" s="5" t="str">
+      <c r="N19" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O19" s="5" t="str">
+      <c r="O19" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P19" s="4" t="str">
+      <c r="P19" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q19" s="4" t="str">
+      <c r="Q19" s="7" t="str">
         <v>赛博女孩</v>
       </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="R19" s="9" t="str">
+        <v>镰刀</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>10016</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4153,57 +4189,59 @@
 }</v>
       </c>
       <c r="C20" s="4">
-        <v>31712</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
+        <v>31710</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>121409</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>27422</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="7">
         <v>10</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
         <v>142891</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="1">
         <v>288888</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="8">
         <v>164656</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="1">
         <v>111092</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="1">
         <v>42804</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="N20" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O20" s="4" t="str">
+      <c r="O20" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P20" s="4" t="str">
+      <c r="P20" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q20" s="4" t="str">
+      <c r="Q20" s="7" t="str">
         <v>黑寡妇</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="R20" s="9" t="str">
+        <v>冰封剑</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>10017</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4324,56 +4362,60 @@
     ]
 }</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="C21" s="4">
+        <v>103069</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>121409</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="7">
         <v>13418</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="7">
         <v>10</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="7">
         <v>142919</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="1">
         <v>2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="1">
         <v>128888</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="8">
         <v>164661</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="1">
         <v>117391</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="1">
         <v>42804</v>
       </c>
-      <c r="N21" s="5" t="str">
+      <c r="N21" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O21" s="5" t="str">
+      <c r="O21" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P21" s="5" t="str">
+      <c r="P21" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q21" s="4" t="str">
+      <c r="Q21" s="7" t="str">
         <v>怪物爪子</v>
       </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="R21" s="9" t="str">
+        <v>刀</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>10018</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4836,56 +4878,60 @@
     ]
 }</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="C22" s="4">
+        <v>122961</v>
+      </c>
+      <c r="D22" s="4">
+        <v>122961</v>
+      </c>
+      <c r="E22" s="7">
         <v>121409</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="7">
         <v>13418</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="7">
         <v>10</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="7">
         <v>142920</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="1">
         <v>688888</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="8">
         <v>164654</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="1">
         <v>117391</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="1">
         <v>42804</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="N22" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O22" s="4" t="str">
+      <c r="O22" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P22" s="4" t="str">
+      <c r="P22" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q22" s="4" t="str">
+      <c r="Q22" s="7" t="str">
         <v>卡卡西</v>
       </c>
-      <c r="R22" s="7"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>10019</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5234,56 +5280,60 @@
     ]
 }</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="C23" s="4">
+        <v>272767</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>121409</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="7">
         <v>27421</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="7">
         <v>10</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
         <v>143231</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="7">
         <v>2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>488888</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="8">
         <v>164662</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="1">
         <v>117391</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="1">
         <v>42804</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="N23" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="O23" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P23" s="4" t="str">
+      <c r="P23" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q23" s="4" t="str">
+      <c r="Q23" s="7" t="str">
         <v>鼬</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="R23" s="2" t="str">
+        <v>法杖</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>10020</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5518,56 +5568,62 @@
     ]
 }</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
+      <c r="C24" s="4">
+        <v>166941</v>
+      </c>
+      <c r="D24" s="7">
+        <v>166941</v>
+      </c>
+      <c r="E24" s="7">
         <v>121409</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="7">
         <v>27421</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="7">
         <v>10</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <v>142915</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <v>2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>100000</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="8">
         <v>164643</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="1">
         <v>117391</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="1">
         <v>42804</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="N24" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O24" s="4" t="str">
+      <c r="O24" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P24" s="4" t="str">
+      <c r="P24" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q24" s="4" t="str">
+      <c r="Q24" s="7" t="str">
         <v>大蛇丸</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="R24" s="2" t="str">
+        <v>水枪</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>10021</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5919,55 +5975,57 @@
       <c r="C25" s="4">
         <v>31712</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>121409</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="7">
         <v>27421</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="7">
         <v>10</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="H25" s="7" t="str">
         <v>0D2FE7104CD5DE0291C71B964C7C7AAC</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="7">
         <v>2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>200000</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="7">
         <v>164672</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="1">
         <v>111092</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="7">
         <v>42805</v>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="N25" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O25" s="4" t="str">
+      <c r="O25" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P25" s="4" t="str">
+      <c r="P25" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q25" s="4" t="str">
+      <c r="Q25" s="7" t="str">
         <v>冰女</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="R25" s="2" t="str">
+        <v>冰钻剑</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>10022</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -6354,110 +6412,116 @@
     ]
 }</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
+      <c r="C26" s="4">
+        <v>118142</v>
+      </c>
+      <c r="D26" s="7">
+        <v>118142</v>
+      </c>
+      <c r="E26" s="7">
         <v>121409</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="7">
         <v>27421</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="7">
         <v>10</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="7">
         <v>142138</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="7">
         <v>2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>200000</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="8">
         <v>164689</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="1">
         <v>117391</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="7">
         <v>42805</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="N26" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O26" s="4" t="str">
+      <c r="O26" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P26" s="4" t="str">
+      <c r="P26" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q26" s="4" t="str">
+      <c r="Q26" s="7" t="str">
         <v>兔子</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="R26" s="2" t="str">
+        <v>屠刀</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>10023</v>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B27" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120","moveSpeed":"300"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C27" s="5">
-        <v>118148</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
+      <c r="C27" s="4">
+        <v>210651</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>121409</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="1">
         <v>27422</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="3">
         <v>142895</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="1">
         <v>3</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="8">
+      <c r="J27" s="1"/>
+      <c r="K27" s="3">
         <v>193334</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="1">
         <v>117391</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="1">
         <v>42805</v>
       </c>
-      <c r="N27" s="5" t="str">
+      <c r="N27" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O27" s="5" t="str">
+      <c r="O27" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P27" s="5" t="str">
+      <c r="P27" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q27" s="5" t="str">
+      <c r="Q27" s="1" t="str">
         <v>洛基</v>
       </c>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="R27" s="3" t="str">
+        <v>蓝色法杖</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>10024</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="1" t="str">
         <v>{
     "charFightIdelAniId": "117380",
     "infos": [
@@ -7241,334 +7305,884 @@
     ]
 }</v>
       </c>
-      <c r="C28" s="5">
-        <v>103061</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
+      <c r="C28" s="4">
+        <v>121672</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
         <v>121409</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="1">
         <v>31122</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="3">
         <v>141498</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="8">
+      <c r="J28" s="1"/>
+      <c r="K28" s="3">
         <v>193346</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="1">
         <v>117391</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="1">
         <v>145912</v>
       </c>
-      <c r="N28" s="5" t="str">
+      <c r="N28" s="1" t="str">
         <v>0|0|10</v>
       </c>
-      <c r="O28" s="5" t="str">
+      <c r="O28" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P28" s="5" t="str">
+      <c r="P28" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q28" s="5" t="str">
+      <c r="Q28" s="1" t="str">
         <v>太阳神</v>
       </c>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="R28" s="3" t="str">
+        <v>镰刀</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>10025</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="1" t="str">
         <v>{"charFightIdelAniId":"117403","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400"},{"type":"1","guid":"117382","duration":"1800","hitLength":"500","frontRockLength":"1300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123289","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"600","offsetPos":["280","0","-40"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123287","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"2500","offsetPos":["180","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"360","skillOffsetDis":"0","skillRadius":"320","skillHeight":"230","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>122956</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>122956</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="1">
         <v>121409</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="7">
         <v>27421</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="1">
         <v>10</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="3">
         <v>143229</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="8">
+      <c r="J29" s="1"/>
+      <c r="K29" s="3">
         <v>193349</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="1">
         <v>117403</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="1">
         <v>42828</v>
       </c>
-      <c r="N29" s="5" t="str">
+      <c r="N29" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O29" s="5" t="str">
+      <c r="O29" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P29" s="5" t="str">
+      <c r="P29" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q29" s="5" t="str">
+      <c r="Q29" s="1" t="str">
         <v>宇智波斑</v>
       </c>
-      <c r="R29" s="8">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="R29" s="3" t="str">
+        <v>恶魔剑</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>10026</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="1" t="str">
         <v>{"charFightIdelAniId":"111095","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"1","guid":"111102","duration":"600","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-15","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111100","duration":"1100","hitLength":"300","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116455","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C30" s="5">
-        <v>122949</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
+      <c r="C30" s="4">
+        <v>103068</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
         <v>121409</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="1">
         <v>27422</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="1">
         <v>10</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="3">
         <v>142255</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="8">
+      <c r="J30" s="1"/>
+      <c r="K30" s="3">
         <v>193336</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="1">
         <v>111095</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="1">
         <v>145907</v>
       </c>
-      <c r="N30" s="5" t="str">
+      <c r="N30" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O30" s="5" t="str">
+      <c r="O30" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P30" s="5" t="str">
+      <c r="P30" s="1" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Q30" s="5" t="str">
+      <c r="Q30" s="1" t="str">
         <v>纳米机甲女性</v>
       </c>
-      <c r="R30" s="8">
-        <v>1</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="R30" s="3" t="str">
+        <v>剑</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>10027</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="1" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C31" s="5">
-        <v>122952</v>
-      </c>
-      <c r="D31" s="5">
-        <v>122952</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="C31" s="4">
+        <v>103083</v>
+      </c>
+      <c r="D31" s="1">
+        <v>103083</v>
+      </c>
+      <c r="E31" s="1">
         <v>121409</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="1">
         <v>31122</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="1">
         <v>10</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="3">
         <v>142903</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="8">
+      <c r="J31" s="1"/>
+      <c r="K31" s="3">
         <v>193344</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="1">
         <v>121951</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="1">
         <v>136966</v>
       </c>
-      <c r="N31" s="5" t="str">
+      <c r="N31" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O31" s="5" t="str">
+      <c r="O31" s="1" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="P31" s="5" t="str">
+      <c r="P31" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q31" s="5" t="str">
+      <c r="Q31" s="1" t="str">
         <v>死侍</v>
       </c>
-      <c r="R31" s="8">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="R31" s="3" t="str">
+        <v>镰刀</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>10028</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="1" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C32" s="5">
-        <v>122946</v>
-      </c>
-      <c r="D32" s="5">
-        <v>122946</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="C32" s="4">
+        <v>198698</v>
+      </c>
+      <c r="D32" s="1">
+        <v>198698</v>
+      </c>
+      <c r="E32" s="1">
         <v>121409</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="1">
         <v>31122</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="1">
         <v>10</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="3">
         <v>142293</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="8">
+      <c r="J32" s="1"/>
+      <c r="K32" s="3">
         <v>193341</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="1">
         <v>121951</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="1">
         <v>145913</v>
       </c>
-      <c r="N32" s="5" t="str">
+      <c r="N32" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O32" s="5" t="str">
+      <c r="O32" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P32" s="5" t="str">
+      <c r="P32" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="Q32" s="8" t="str">
+      <c r="Q32" s="3" t="str">
         <v>火山哨兵</v>
       </c>
-      <c r="R32" s="12">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="R32" s="10" t="str" xml:space="preserve">
+        <v>  荧光剑</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>10029</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="1" t="str">
         <v>{"charFightIdelAniId":"111092","infos":[{"type":"1","guid":"111094","duration":"900","hitLength":"550","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["155","13","27"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111098","duration":"900","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","-10"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111099","duration":"1900","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113921","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-180","skillRadius":"0","skillHeight":"80","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"111097","duration":"1900","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113920","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","0"],"offsetRotation":["35","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C33" s="5">
-        <v>103061</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
+      <c r="C33" s="4">
+        <v>29057</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
         <v>121409</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="1">
         <v>31122</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="1">
         <v>10</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="3">
         <v>142262</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
         <v>193348</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="1">
         <v>111092</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="1">
         <v>42816</v>
       </c>
-      <c r="N33" s="5" t="str">
+      <c r="N33" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O33" s="5" t="str">
+      <c r="O33" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P33" s="5" t="str">
+      <c r="P33" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q33" s="5" t="str">
+      <c r="Q33" s="1" t="str">
         <v>绯红女巫</v>
       </c>
-      <c r="R33" s="12">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="R33" s="10" t="str">
+        <v>狂热剑</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>10030</v>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="1" t="str">
+        <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
+      </c>
+      <c r="C34" s="4">
+        <v>272130</v>
+      </c>
+      <c r="D34" s="1">
+        <v>272130</v>
+      </c>
+      <c r="E34" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F34" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>142894</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
+        <v>193351</v>
+      </c>
+      <c r="L34" s="1">
+        <v>125369</v>
+      </c>
+      <c r="M34" s="1">
+        <v>42818</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <v>雷神</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="35">
+      <c r="A35" s="4">
+        <v>10031</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
+      </c>
+      <c r="C35" s="4">
+        <v>300436</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F35" s="1">
+        <v>117224</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3">
+        <v>142907</v>
+      </c>
+      <c r="I35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
+        <v>193350</v>
+      </c>
+      <c r="L35" s="1">
+        <v>125369</v>
+      </c>
+      <c r="M35" s="1">
+        <v>42804</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <v>蜘蛛侠</v>
+      </c>
+      <c r="R35" s="5" t="str">
+        <v>木法杖</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="4">
+        <v>10032</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
+      </c>
+      <c r="C36" s="4">
+        <v>121541</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F36" s="1">
+        <v>89089</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>142294</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="3">
+        <v>193332</v>
+      </c>
+      <c r="L36" s="1">
+        <v>121610</v>
+      </c>
+      <c r="M36" s="1">
+        <v>42805</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <v>女浩克</v>
+      </c>
+      <c r="R36" s="5" t="str">
+        <v>瓜子盾</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="37">
+      <c r="A37" s="4">
+        <v>10033</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
+      </c>
+      <c r="C37" s="4">
+        <v>122950</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F37" s="1">
+        <v>89089</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3">
+        <v>142897</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="3">
+        <v>193342</v>
+      </c>
+      <c r="L37" s="1">
+        <v>121610</v>
+      </c>
+      <c r="M37" s="1">
+        <v>42805</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <v>绿巨人</v>
+      </c>
+      <c r="R37" s="5" t="str">
+        <v>盾</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="38">
+      <c r="A38" s="4">
+        <v>10034</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
+      </c>
+      <c r="C38" s="4">
+        <v>31734</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F38" s="1">
+        <v>27421</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3">
+        <v>142272</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="3">
+        <v>193347</v>
+      </c>
+      <c r="L38" s="1">
+        <v>108371</v>
+      </c>
+      <c r="M38" s="1">
+        <v>42818</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <v>机甲少女</v>
+      </c>
+      <c r="R38" s="9" t="str">
+        <v>终极冰环剑</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="39">
+      <c r="A39" s="4">
+        <v>10035</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
+      </c>
+      <c r="C39" s="4">
+        <v>155702</v>
+      </c>
+      <c r="D39" s="1">
+        <v>155702</v>
+      </c>
+      <c r="E39" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F39" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
+        <v>142913</v>
+      </c>
+      <c r="I39" s="1">
+        <v>3</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="3">
+        <v>193339</v>
+      </c>
+      <c r="L39" s="1">
+        <v>117340</v>
+      </c>
+      <c r="M39" s="1">
+        <v>42816</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <v>雏田</v>
+      </c>
+      <c r="R39" s="9" t="str">
+        <v>散弹喷枪</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="40">
+      <c r="A40" s="4">
+        <v>10036</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
+      </c>
+      <c r="C40" s="4">
+        <v>122726</v>
+      </c>
+      <c r="D40" s="1">
+        <v>122726</v>
+      </c>
+      <c r="E40" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F40" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3">
+        <v>142922</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="3">
+        <v>193353</v>
+      </c>
+      <c r="L40" s="1">
+        <v>122541</v>
+      </c>
+      <c r="M40" s="1">
+        <v>42804</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <v>路飞</v>
+      </c>
+      <c r="R40" s="9" t="str">
+        <v>火枪</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="41">
+      <c r="A41" s="4">
+        <v>10037</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <v>{"charFightIdelAniId":"125369","infos":[{"type":"1","guid":"117326","duration":"500","hitLength":"200","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"300","offsetPos":["60","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["0.5","0.5","0.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"117328","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130639","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"300","offsetPos":["0","0","0"],"offsetRotation":["30","40","-48"],"offsetScale":["0.6","0.6","0.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"100","skillWidth":"80"},{"type":"1","guid":"117327","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["-1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"450"},{"type":"1","guid":"117316","duration":"800","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"100","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120"},{"type":"1","guid":"117315","duration":"800","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["-50","0","0"],"offsetRotation":["-140","0","-270"],"offsetScale":["1","1.5","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["250","50","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1200","offsetPos":["380","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1200","offsetPos":["500","50","-80s"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"400","skillLength":"500","skillWidth":"150"},{"type":"1","guid":"117324","duration":"1600","hitLength":"1100","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"114161","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"700","offsetPos":["0","0","-75"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130743","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130640","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1050","slotIndex":"-1","stopTime":"1500","offsetPos":["600","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"150","skillLength":"550","skillWidth":"150"}]}</v>
+      </c>
+      <c r="C41" s="1">
+        <v>297029</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F41" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3">
+        <v>143236</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="3">
+        <v>193335</v>
+      </c>
+      <c r="L41" s="1">
+        <v>125369</v>
+      </c>
+      <c r="M41" s="1">
+        <v>42818</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <v>佐助</v>
+      </c>
+      <c r="R41" s="9" t="str">
+        <v>紫光剑</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="42">
+      <c r="A42" s="4">
+        <v>10038</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
+      </c>
+      <c r="C42" s="4">
+        <v>222534</v>
+      </c>
+      <c r="D42" s="1">
+        <v>222534</v>
+      </c>
+      <c r="E42" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F42" s="1">
+        <v>27421</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>142310</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="3">
+        <v>193354</v>
+      </c>
+      <c r="L42" s="1">
+        <v>117391</v>
+      </c>
+      <c r="M42" s="1">
+        <v>42804</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <v>天神</v>
+      </c>
+      <c r="R42" s="9" t="str">
+        <v>激光枪</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="43">
+      <c r="A43" s="4">
+        <v>10039</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
+      </c>
+      <c r="C43" s="4">
+        <v>269895</v>
+      </c>
+      <c r="D43" s="1">
+        <v>269895</v>
+      </c>
+      <c r="E43" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F43" s="1">
+        <v>151551</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3">
+        <v>142892</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
+        <v>193352</v>
+      </c>
+      <c r="L43" s="1">
+        <v>121608</v>
+      </c>
+      <c r="M43" s="1">
+        <v>42804</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <v>金刚狼</v>
+      </c>
+      <c r="R43" s="5" t="str">
+        <v>剑(金刚狼专用)</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="44">
+      <c r="A44" s="4">
+        <v>10040</v>
+      </c>
+      <c r="B44" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -8107,574 +8721,54 @@
     ]
 }</v>
       </c>
-      <c r="C34" s="5" t="str"/>
-      <c r="D34" s="5" t="str"/>
-      <c r="E34" s="5">
+      <c r="C44" s="4">
+        <v>122720</v>
+      </c>
+      <c r="D44" s="1">
+        <v>122720</v>
+      </c>
+      <c r="E44" s="1">
         <v>121409</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F44" s="1">
         <v>135892</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G44" s="1">
         <v>10</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H44" s="3">
         <v>142888</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I44" s="3">
         <v>3</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
         <v>193355</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L44" s="1">
         <v>117391</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M44" s="1">
         <v>42804</v>
       </c>
-      <c r="N34" s="5" t="str">
+      <c r="N44" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O34" s="5" t="str">
+      <c r="O44" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P34" s="5" t="str">
+      <c r="P44" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q34" s="5" t="str">
+      <c r="Q44" s="1" t="str">
         <v>钢铁侠</v>
       </c>
-      <c r="R34" s="11">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="35">
-      <c r="A35" s="3">
-        <v>10031</v>
-      </c>
-      <c r="B35" s="5" t="str">
-        <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
-      </c>
-      <c r="C35" s="5">
-        <v>118147</v>
-      </c>
-      <c r="D35" s="5">
-        <v>118147</v>
-      </c>
-      <c r="E35" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F35" s="5">
-        <v>135892</v>
-      </c>
-      <c r="G35" s="5">
-        <v>10</v>
-      </c>
-      <c r="H35" s="8">
-        <v>142894</v>
-      </c>
-      <c r="I35" s="8">
-        <v>3</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8">
-        <v>193351</v>
-      </c>
-      <c r="L35" s="5">
-        <v>125369</v>
-      </c>
-      <c r="M35" s="5">
-        <v>42818</v>
-      </c>
-      <c r="N35" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O35" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P35" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q35" s="5" t="str">
-        <v>雷神</v>
-      </c>
-      <c r="R35" s="11">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="36">
-      <c r="A36" s="3">
-        <v>10032</v>
-      </c>
-      <c r="B36" s="5" t="str">
-        <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
-      </c>
-      <c r="C36" s="5" t="str"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F36" s="5">
-        <v>117224</v>
-      </c>
-      <c r="G36" s="5">
-        <v>10</v>
-      </c>
-      <c r="H36" s="8">
-        <v>142907</v>
-      </c>
-      <c r="I36" s="8">
-        <v>3</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8">
-        <v>193350</v>
-      </c>
-      <c r="L36" s="5">
-        <v>125369</v>
-      </c>
-      <c r="M36" s="5">
-        <v>42804</v>
-      </c>
-      <c r="N36" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O36" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P36" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q36" s="5" t="str">
-        <v>蜘蛛侠</v>
-      </c>
-      <c r="R36" s="11">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="37">
-      <c r="A37" s="3">
-        <v>10033</v>
-      </c>
-      <c r="B37" s="5" t="str">
-        <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
-      </c>
-      <c r="C37" s="5" t="str"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F37" s="5">
-        <v>151551</v>
-      </c>
-      <c r="G37" s="5">
-        <v>10</v>
-      </c>
-      <c r="H37" s="8">
-        <v>142892</v>
-      </c>
-      <c r="I37" s="8">
-        <v>3</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8">
-        <v>193352</v>
-      </c>
-      <c r="L37" s="5">
-        <v>121608</v>
-      </c>
-      <c r="M37" s="5">
-        <v>42804</v>
-      </c>
-      <c r="N37" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O37" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P37" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q37" s="5" t="str">
-        <v>金刚狼</v>
-      </c>
-      <c r="R37" s="11">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="38">
-      <c r="A38" s="3">
-        <v>10034</v>
-      </c>
-      <c r="B38" s="5" t="str">
-        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
-      </c>
-      <c r="C38" s="5" t="str"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F38" s="5">
-        <v>89089</v>
-      </c>
-      <c r="G38" s="5">
-        <v>10</v>
-      </c>
-      <c r="H38" s="8">
-        <v>142294</v>
-      </c>
-      <c r="I38" s="5">
-        <v>3</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="8">
-        <v>193332</v>
-      </c>
-      <c r="L38" s="5">
-        <v>121610</v>
-      </c>
-      <c r="M38" s="5">
-        <v>42805</v>
-      </c>
-      <c r="N38" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O38" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P38" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q38" s="5" t="str">
-        <v>女浩克</v>
-      </c>
-      <c r="R38" s="11">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="39">
-      <c r="A39" s="3">
-        <v>10035</v>
-      </c>
-      <c r="B39" s="5" t="str">
-        <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
-      </c>
-      <c r="C39" s="5" t="str"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F39" s="5">
-        <v>89089</v>
-      </c>
-      <c r="G39" s="5">
-        <v>10</v>
-      </c>
-      <c r="H39" s="8">
-        <v>142897</v>
-      </c>
-      <c r="I39" s="5">
-        <v>3</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="8">
-        <v>193342</v>
-      </c>
-      <c r="L39" s="5">
-        <v>121610</v>
-      </c>
-      <c r="M39" s="5">
-        <v>42805</v>
-      </c>
-      <c r="N39" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O39" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P39" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q39" s="5" t="str">
-        <v>绿巨人</v>
-      </c>
-      <c r="R39" s="11">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="40">
-      <c r="A40" s="3">
-        <v>10036</v>
-      </c>
-      <c r="B40" s="5" t="str">
-        <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
-      </c>
-      <c r="C40" s="5" t="str"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F40" s="5">
-        <v>27421</v>
-      </c>
-      <c r="G40" s="5">
-        <v>10</v>
-      </c>
-      <c r="H40" s="8">
-        <v>142310</v>
-      </c>
-      <c r="I40" s="5">
-        <v>3</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="8">
-        <v>193354</v>
-      </c>
-      <c r="L40" s="5">
-        <v>117391</v>
-      </c>
-      <c r="M40" s="5">
-        <v>42804</v>
-      </c>
-      <c r="N40" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O40" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P40" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q40" s="5" t="str">
-        <v>天神</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="41">
-      <c r="A41" s="3">
-        <v>10037</v>
-      </c>
-      <c r="B41" s="5" t="str">
-        <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
-      </c>
-      <c r="C41" s="5" t="str"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F41" s="5">
-        <v>27421</v>
-      </c>
-      <c r="G41" s="5">
-        <v>10</v>
-      </c>
-      <c r="H41" s="8">
-        <v>142272</v>
-      </c>
-      <c r="I41" s="5">
-        <v>3</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="8">
-        <v>193347</v>
-      </c>
-      <c r="L41" s="5">
-        <v>108371</v>
-      </c>
-      <c r="M41" s="5">
-        <v>42818</v>
-      </c>
-      <c r="N41" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O41" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P41" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q41" s="5" t="str">
-        <v>机甲少女</v>
-      </c>
-      <c r="R41" s="7">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="42">
-      <c r="A42" s="3">
-        <v>10038</v>
-      </c>
-      <c r="B42" s="5" t="str">
-        <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
-      </c>
-      <c r="C42" s="5" t="str"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F42" s="5">
-        <v>135892</v>
-      </c>
-      <c r="G42" s="5">
-        <v>10</v>
-      </c>
-      <c r="H42" s="8">
-        <v>142913</v>
-      </c>
-      <c r="I42" s="5">
-        <v>3</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="8">
-        <v>193339</v>
-      </c>
-      <c r="L42" s="5">
-        <v>117340</v>
-      </c>
-      <c r="M42" s="5">
-        <v>42816</v>
-      </c>
-      <c r="N42" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O42" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P42" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q42" s="5" t="str">
-        <v>雏田</v>
-      </c>
-      <c r="R42" s="7">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="43">
-      <c r="A43" s="3">
-        <v>10039</v>
-      </c>
-      <c r="B43" s="5" t="str">
-        <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
-      </c>
-      <c r="C43" s="5" t="str"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F43" s="5">
-        <v>135892</v>
-      </c>
-      <c r="G43" s="5">
-        <v>10</v>
-      </c>
-      <c r="H43" s="8">
-        <v>142922</v>
-      </c>
-      <c r="I43" s="5">
-        <v>3</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="8">
-        <v>193353</v>
-      </c>
-      <c r="L43" s="5">
-        <v>122541</v>
-      </c>
-      <c r="M43" s="5">
-        <v>42804</v>
-      </c>
-      <c r="N43" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O43" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P43" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q43" s="5" t="str">
-        <v>路飞</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="44">
-      <c r="A44" s="3">
-        <v>10040</v>
-      </c>
-      <c r="B44" s="5" t="str">
-        <v>{"charFightIdelAniId":"125369","infos":[{"type":"1","guid":"117326","duration":"500","hitLength":"200","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"300","offsetPos":["60","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["0.5","0.5","0.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"117328","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130639","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"300","offsetPos":["0","0","0"],"offsetRotation":["30","40","-48"],"offsetScale":["0.6","0.6","0.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"100","skillWidth":"80"},{"type":"1","guid":"117327","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["-1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"450"},{"type":"1","guid":"117316","duration":"800","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"100","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120"},{"type":"1","guid":"117315","duration":"800","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["-50","0","0"],"offsetRotation":["-140","0","-270"],"offsetScale":["1","1.5","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["250","50","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1200","offsetPos":["380","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1200","offsetPos":["500","50","-80s"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"400","skillLength":"500","skillWidth":"150"},{"type":"1","guid":"117324","duration":"1600","hitLength":"1100","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"114161","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"700","offsetPos":["0","0","-75"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130743","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130640","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1050","slotIndex":"-1","stopTime":"1500","offsetPos":["600","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"150","skillLength":"550","skillWidth":"150"}]}</v>
-      </c>
-      <c r="C44" s="5" t="str"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
-        <v>121409</v>
-      </c>
-      <c r="F44" s="5">
-        <v>135892</v>
-      </c>
-      <c r="G44" s="5">
-        <v>10</v>
-      </c>
-      <c r="H44" s="8">
-        <v>143236</v>
-      </c>
-      <c r="I44" s="5">
-        <v>3</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="8">
-        <v>193335</v>
-      </c>
-      <c r="L44" s="5">
-        <v>125369</v>
-      </c>
-      <c r="M44" s="5">
-        <v>42818</v>
-      </c>
-      <c r="N44" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="O44" s="5" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="P44" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="Q44" s="5" t="str">
-        <v>佐助</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="R44" s="5" t="str">
+        <v>激光枪</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/infinite/Excel/ColdWeapon_冷兵器表.xlsx
+++ b/infinite/Excel/ColdWeapon_冷兵器表.xlsx
@@ -38,7 +38,7 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -55,28 +55,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,13 +75,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF606266"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF667901"/>
       <name val="Calibri"/>
@@ -111,7 +83,28 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <color rgb="FF606266"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF34C724"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,7 +118,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,14 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -247,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,25 +252,22 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="165" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,230 +595,230 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="6" t="str">
+    <row customHeight="true" ht="25" r="1">
+      <c r="A1" s="7" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="6" t="str">
+      <c r="C1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="6" t="str">
+      <c r="D1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="6" t="str">
+      <c r="G1" s="7" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="6" t="str">
+      <c r="H1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="I1" s="6" t="str">
+      <c r="I1" s="7" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="6" t="str">
+      <c r="J1" s="7" t="str">
         <v>int</v>
       </c>
-      <c r="K1" s="6" t="str">
+      <c r="K1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="6" t="str">
+      <c r="L1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="M1" s="6" t="str">
+      <c r="M1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="N1" s="6" t="str">
+      <c r="N1" s="7" t="str">
         <v>vector3</v>
       </c>
-      <c r="O1" s="6" t="str">
+      <c r="O1" s="7" t="str">
         <v>vector3</v>
       </c>
-      <c r="P1" s="6" t="str">
+      <c r="P1" s="7" t="str">
         <v>vector3</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="6" t="str">
+    <row customHeight="true" ht="25" r="2">
+      <c r="A2" s="7" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="7" t="str">
         <v>jsons</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="7" t="str">
         <v>rightWeaponGuid</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="3" t="str">
         <v>leftWeaponGuid</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="3" t="str">
         <v>hitAnimation</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="3" t="str">
         <v>hitEffect</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="3" t="str">
         <v>hitDamage</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="3" t="str">
         <v>Role</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="3" t="str">
         <v>RoleType</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="3" t="str">
         <v>Price</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="3" t="str">
         <v>RoleIcon</v>
       </c>
-      <c r="L2" s="2" t="str">
+      <c r="L2" s="3" t="str">
         <v>StandbyAnimation</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="M2" s="3" t="str">
         <v>EffectId</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="N2" s="3" t="str">
         <v>EffectOffset</v>
       </c>
-      <c r="O2" s="2" t="str">
+      <c r="O2" s="3" t="str">
         <v>EffectRot</v>
       </c>
-      <c r="P2" s="2" t="str">
+      <c r="P2" s="3" t="str">
         <v>EffectScale</v>
       </c>
-      <c r="Q2" s="2" t="str">
+      <c r="Q2" s="3" t="str">
         <v>Del</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
-    <row customHeight="true" ht="61" r="3">
-      <c r="A3" s="6" t="str">
+    <row customHeight="true" ht="65" r="3">
+      <c r="A3" s="7" t="str">
         <v>id</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="7" t="str">
         <v>动作数据</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="7" t="str">
         <v>右手装备</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="3" t="str">
         <v>左手装备</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="3" t="str">
         <v>受击动画</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="3" t="str">
         <v>命中特效</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="3" t="str">
         <v>伤害</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="3" t="str">
         <v>角色</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="3" t="str">
         <v>角色类型
 1-免费
 2-金币购买
 3-广告限时</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="3" t="str">
         <v>价格</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" s="3" t="str">
         <v>角色Icon</v>
       </c>
-      <c r="L3" s="2" t="str">
+      <c r="L3" s="3" t="str">
         <v>待机动画</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="M3" s="3" t="str">
         <v>特效id</v>
       </c>
-      <c r="N3" s="2" t="str">
+      <c r="N3" s="3" t="str">
         <v>特效偏移</v>
       </c>
-      <c r="O3" s="2" t="str">
+      <c r="O3" s="3" t="str">
         <v>特效旋转</v>
       </c>
-      <c r="P3" s="2" t="str">
+      <c r="P3" s="3" t="str">
         <v>特效缩放</v>
       </c>
-      <c r="Q3" s="2" t="str">
+      <c r="Q3" s="3" t="str">
         <v>注释</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+    <row customHeight="true" ht="25" r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="4">
+    <row customHeight="true" ht="25" r="5">
+      <c r="A5" s="3">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C5" s="1">
-        <v>118140</v>
+      <c r="C5" s="1" t="str">
+        <v>D636AFB34192D6DB62DD059D4F73538A</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -847,7 +830,7 @@
       <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>142932</v>
       </c>
       <c r="I5" s="1">
@@ -856,7 +839,7 @@
       <c r="J5" s="1">
         <v>6666</v>
       </c>
-      <c r="K5" s="11" t="str">
+      <c r="K5" s="10" t="str">
         <v>193337</v>
       </c>
       <c r="L5" s="1">
@@ -877,14 +860,14 @@
       <c r="Q5" s="1" t="str">
         <v>悟空</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="9">
         <v>0</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="4">
+    <row customHeight="true" ht="25" r="6">
+      <c r="A6" s="3">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -1059,7 +1042,7 @@
       <c r="G6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>141618</v>
       </c>
       <c r="I6" s="1">
@@ -1068,7 +1051,7 @@
       <c r="J6" s="1">
         <v>3000</v>
       </c>
-      <c r="K6" s="11" t="str">
+      <c r="K6" s="10" t="str">
         <v>193356</v>
       </c>
       <c r="L6" s="1">
@@ -1089,14 +1072,14 @@
       <c r="Q6" s="1" t="str">
         <v>赛博自来也</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="9">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="4">
+    <row customHeight="true" ht="25" r="7">
+      <c r="A7" s="3">
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="str">
@@ -1115,7 +1098,7 @@
       <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>142889</v>
       </c>
       <c r="I7" s="1">
@@ -1124,7 +1107,7 @@
       <c r="J7" s="1">
         <v>8888</v>
       </c>
-      <c r="K7" s="11" t="str">
+      <c r="K7" s="10" t="str">
         <v>193343</v>
       </c>
       <c r="L7" s="1">
@@ -1145,14 +1128,14 @@
       <c r="Q7" s="1" t="str">
         <v>海王</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="9">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="4">
+    <row customHeight="true" ht="25" r="8">
+      <c r="A8" s="3">
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="str">
@@ -1173,7 +1156,7 @@
       <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>142898</v>
       </c>
       <c r="I8" s="1">
@@ -1182,7 +1165,7 @@
       <c r="J8" s="1">
         <v>66666</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>193340</v>
       </c>
       <c r="L8" s="1">
@@ -1203,14 +1186,14 @@
       <c r="Q8" s="1" t="str">
         <v>美国队长</v>
       </c>
-      <c r="R8" s="3" t="str">
+      <c r="R8" s="2" t="str">
         <v>神锤</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="4">
+    <row customHeight="true" ht="25" r="9">
+      <c r="A9" s="3">
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="str">
@@ -1229,7 +1212,7 @@
       <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>142886</v>
       </c>
       <c r="I9" s="1">
@@ -1238,7 +1221,7 @@
       <c r="J9" s="1">
         <v>100000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>193345</v>
       </c>
       <c r="L9" s="1">
@@ -1259,14 +1242,14 @@
       <c r="Q9" s="1" t="str">
         <v>毒液</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="4">
+    <row customHeight="true" ht="25" r="10">
+      <c r="A10" s="3">
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -1287,7 +1270,7 @@
       <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>142899</v>
       </c>
       <c r="I10" s="1">
@@ -1296,7 +1279,7 @@
       <c r="J10" s="1">
         <v>120000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>193333</v>
       </c>
       <c r="L10" s="1">
@@ -1317,14 +1300,14 @@
       <c r="Q10" s="1" t="str">
         <v>灭霸拳套</v>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="2" t="str">
         <v>斧头</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="4">
+    <row customHeight="true" ht="25" r="11">
+      <c r="A11" s="3">
         <v>10007</v>
       </c>
       <c r="B11" s="1" t="str">
@@ -1343,7 +1326,7 @@
       <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>142925</v>
       </c>
       <c r="I11" s="1">
@@ -1352,7 +1335,7 @@
       <c r="J11" s="1">
         <v>150000</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>193338</v>
       </c>
       <c r="L11" s="1">
@@ -1373,20 +1356,20 @@
       <c r="Q11" s="1" t="str">
         <v>鸣人</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="4">
+    <row customHeight="true" ht="25" r="12">
+      <c r="A12" s="3">
         <v>10008</v>
       </c>
       <c r="B12" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>218730</v>
       </c>
       <c r="D12" s="1">
@@ -1401,7 +1384,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="2" t="str">
         <v>EE5F536B4DD23D7B7684669580687A3C</v>
       </c>
       <c r="I12" s="1">
@@ -1410,7 +1393,7 @@
       <c r="J12" s="1">
         <v>200000</v>
       </c>
-      <c r="K12" s="11" t="str">
+      <c r="K12" s="10" t="str">
         <v>182102</v>
       </c>
       <c r="L12" s="1">
@@ -1428,20 +1411,20 @@
       <c r="P12" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q12" s="3" t="str">
+      <c r="Q12" s="2" t="str">
         <v>未来战士</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="4">
+    <row customHeight="true" ht="25" r="13">
+      <c r="A13" s="3">
         <v>10009</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1600,58 +1583,58 @@
     ]
 }</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>210791</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
         <v>121409</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>163337</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>10</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>142896</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>5000</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>164634</v>
       </c>
       <c r="L13" s="1">
         <v>117391</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="4">
         <v>42805</v>
       </c>
-      <c r="N13" s="7" t="str">
+      <c r="N13" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O13" s="7" t="str">
+      <c r="O13" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P13" s="7" t="str">
+      <c r="P13" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q13" s="7" t="str">
+      <c r="Q13" s="4" t="str">
         <v>森林哨兵</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="4">
+    <row customHeight="true" ht="25" r="14">
+      <c r="A14" s="3">
         <v>10010</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1848,62 +1831,62 @@
     ]
 }</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>221099</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>221099</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>121409</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <v>135892</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>10</v>
       </c>
-      <c r="H14" s="7" t="str">
+      <c r="H14" s="4" t="str">
         <v>90CDCFD5497992D511E6E38B7015C795</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>2</v>
       </c>
       <c r="J14" s="1">
         <v>20000</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>164671</v>
       </c>
       <c r="L14" s="1">
         <v>117391</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <v>42818</v>
       </c>
-      <c r="N14" s="7" t="str">
+      <c r="N14" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O14" s="7" t="str">
+      <c r="O14" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P14" s="7" t="str">
+      <c r="P14" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q14" s="7" t="str">
+      <c r="Q14" s="4" t="str">
         <v>索尼克</v>
       </c>
-      <c r="R14" s="9" t="str">
+      <c r="R14" s="5" t="str">
         <v>手枪</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="4">
+    <row customHeight="true" ht="25" r="15">
+      <c r="A15" s="3">
         <v>10011</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2100,31 +2083,31 @@
     ]
 }</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>43702</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>43702</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>121409</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>142950</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>10</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>142901</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>2</v>
       </c>
       <c r="J15" s="1">
         <v>30000</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>164652</v>
       </c>
       <c r="L15" s="1">
@@ -2142,20 +2125,20 @@
       <c r="P15" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q15" s="7" t="str">
+      <c r="Q15" s="4" t="str">
         <v>粉毛怪</v>
       </c>
-      <c r="R15" s="9" t="str">
+      <c r="R15" s="5" t="str">
         <v>信号枪</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="16">
-      <c r="A16" s="4">
+    <row customHeight="true" ht="25" r="16">
+      <c r="A16" s="3">
         <v>10012</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2428,20 +2411,20 @@
     ]
 }</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>103067</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>121409</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <v>135892</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>10</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>142918</v>
       </c>
       <c r="I16" s="1">
@@ -2450,7 +2433,7 @@
       <c r="J16" s="1">
         <v>88888</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>164630</v>
       </c>
       <c r="L16" s="1">
@@ -2468,20 +2451,20 @@
       <c r="P16" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q16" s="7" t="str">
+      <c r="Q16" s="4" t="str">
         <v>纲手</v>
       </c>
-      <c r="R16" s="9" t="str">
+      <c r="R16" s="5" t="str">
         <v>刀</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="17">
-      <c r="A17" s="4">
+    <row customHeight="true" ht="25" r="17">
+      <c r="A17" s="3">
         <v>10013</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2754,20 +2737,20 @@
     ]
 }</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>103080</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
         <v>121409</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>135892</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>10</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>142924</v>
       </c>
       <c r="I17" s="1">
@@ -2776,7 +2759,7 @@
       <c r="J17" s="1">
         <v>88888</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>164626</v>
       </c>
       <c r="L17" s="1">
@@ -2794,20 +2777,20 @@
       <c r="P17" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q17" s="7" t="str">
+      <c r="Q17" s="4" t="str">
         <v>李洛克</v>
       </c>
-      <c r="R17" s="9" t="str">
+      <c r="R17" s="5" t="str">
         <v>刀</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="18">
-      <c r="A18" s="4">
+    <row customHeight="true" ht="25" r="18">
+      <c r="A18" s="3">
         <v>10014</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2928,20 +2911,20 @@
     ]
 }</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>103075</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
         <v>121409</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="4">
         <v>168828</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>10</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>142917</v>
       </c>
       <c r="I18" s="1">
@@ -2950,38 +2933,38 @@
       <c r="J18" s="1">
         <v>166666</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>164648</v>
       </c>
       <c r="L18" s="1">
         <v>117391</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>42818</v>
       </c>
-      <c r="N18" s="7" t="str">
+      <c r="N18" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O18" s="7" t="str">
+      <c r="O18" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P18" s="7" t="str">
+      <c r="P18" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q18" s="7" t="str">
+      <c r="Q18" s="4" t="str">
         <v>干柿鬼鲛</v>
       </c>
-      <c r="R18" s="9" t="str">
+      <c r="R18" s="5" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="19">
-      <c r="A19" s="4">
+    <row customHeight="true" ht="25" r="19">
+      <c r="A19" s="3">
         <v>10015</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3596,20 +3579,20 @@
     ]
 }</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>122946</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <v>121409</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <v>151551</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>10</v>
       </c>
-      <c r="H19" s="7" t="str">
+      <c r="H19" s="4" t="str">
         <v>409EBB1E48B099BDC8F15192C6443591</v>
       </c>
       <c r="I19" s="1">
@@ -3618,7 +3601,7 @@
       <c r="J19" s="1">
         <v>999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="4">
         <v>54193</v>
       </c>
       <c r="L19" s="1">
@@ -3633,23 +3616,23 @@
       <c r="O19" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P19" s="7" t="str">
+      <c r="P19" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q19" s="7" t="str">
+      <c r="Q19" s="4" t="str">
         <v>赛博女孩</v>
       </c>
-      <c r="R19" s="9" t="str">
+      <c r="R19" s="5" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="20">
-      <c r="A20" s="4">
+    <row customHeight="true" ht="25" r="20">
+      <c r="A20" s="3">
         <v>10016</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4188,20 +4171,20 @@
     ]
 }</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>31710</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
         <v>121409</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <v>27422</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="4">
         <v>10</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>142891</v>
       </c>
       <c r="I20" s="1">
@@ -4210,7 +4193,7 @@
       <c r="J20" s="1">
         <v>288888</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>164656</v>
       </c>
       <c r="L20" s="1">
@@ -4219,29 +4202,29 @@
       <c r="M20" s="1">
         <v>42804</v>
       </c>
-      <c r="N20" s="7" t="str">
+      <c r="N20" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O20" s="7" t="str">
+      <c r="O20" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P20" s="7" t="str">
+      <c r="P20" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q20" s="7" t="str">
+      <c r="Q20" s="4" t="str">
         <v>黑寡妇</v>
       </c>
-      <c r="R20" s="9" t="str">
+      <c r="R20" s="5" t="str">
         <v>冰封剑</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="21">
-      <c r="A21" s="4">
+    <row customHeight="true" ht="25" r="21">
+      <c r="A21" s="3">
         <v>10017</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4362,20 +4345,20 @@
     ]
 }</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>103069</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
         <v>121409</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="4">
         <v>13418</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>10</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>142919</v>
       </c>
       <c r="I21" s="1">
@@ -4384,7 +4367,7 @@
       <c r="J21" s="1">
         <v>128888</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>164661</v>
       </c>
       <c r="L21" s="1">
@@ -4402,20 +4385,20 @@
       <c r="P21" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q21" s="7" t="str">
+      <c r="Q21" s="4" t="str">
         <v>怪物爪子</v>
       </c>
-      <c r="R21" s="9" t="str">
+      <c r="R21" s="5" t="str">
         <v>刀</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="22">
-      <c r="A22" s="4">
+    <row customHeight="true" ht="25" r="22">
+      <c r="A22" s="3">
         <v>10018</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4878,31 +4861,31 @@
     ]
 }</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>122961</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>122961</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="4">
         <v>121409</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <v>13418</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>10</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>142920</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>2</v>
       </c>
       <c r="J22" s="1">
         <v>688888</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>164654</v>
       </c>
       <c r="L22" s="1">
@@ -4911,27 +4894,27 @@
       <c r="M22" s="1">
         <v>42804</v>
       </c>
-      <c r="N22" s="7" t="str">
+      <c r="N22" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O22" s="7" t="str">
+      <c r="O22" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P22" s="7" t="str">
+      <c r="P22" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q22" s="7" t="str">
+      <c r="Q22" s="4" t="str">
         <v>卡卡西</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="23">
-      <c r="A23" s="4">
+    <row customHeight="true" ht="25" r="23">
+      <c r="A23" s="3">
         <v>10019</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5280,29 +5263,29 @@
     ]
 }</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>272767</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
         <v>121409</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <v>27421</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <v>10</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>143231</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>2</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="3">
         <v>488888</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>164662</v>
       </c>
       <c r="L23" s="1">
@@ -5311,29 +5294,29 @@
       <c r="M23" s="1">
         <v>42804</v>
       </c>
-      <c r="N23" s="7" t="str">
+      <c r="N23" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O23" s="7" t="str">
+      <c r="O23" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P23" s="7" t="str">
+      <c r="P23" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q23" s="7" t="str">
+      <c r="Q23" s="4" t="str">
         <v>鼬</v>
       </c>
-      <c r="R23" s="2" t="str">
+      <c r="R23" s="3" t="str">
         <v>法杖</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="24">
-      <c r="A24" s="4">
+    <row customHeight="true" ht="25" r="24">
+      <c r="A24" s="3">
         <v>10020</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5568,31 +5551,31 @@
     ]
 }</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>166941</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>166941</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>121409</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <v>27421</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>10</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>142915</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>2</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="3">
         <v>100000</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>164643</v>
       </c>
       <c r="L24" s="1">
@@ -5601,29 +5584,29 @@
       <c r="M24" s="1">
         <v>42804</v>
       </c>
-      <c r="N24" s="7" t="str">
+      <c r="N24" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O24" s="7" t="str">
+      <c r="O24" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P24" s="7" t="str">
+      <c r="P24" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q24" s="7" t="str">
+      <c r="Q24" s="4" t="str">
         <v>大蛇丸</v>
       </c>
-      <c r="R24" s="2" t="str">
+      <c r="R24" s="3" t="str">
         <v>水枪</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="25">
-      <c r="A25" s="4">
+    <row customHeight="true" ht="25" r="25">
+      <c r="A25" s="3">
         <v>10021</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5972,60 +5955,60 @@
     ]
 }</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>31712</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
         <v>121409</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <v>27421</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>10</v>
       </c>
-      <c r="H25" s="7" t="str">
+      <c r="H25" s="4" t="str">
         <v>0D2FE7104CD5DE0291C71B964C7C7AAC</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>2</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="3">
         <v>200000</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <v>164672</v>
       </c>
       <c r="L25" s="1">
         <v>111092</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>42805</v>
       </c>
-      <c r="N25" s="7" t="str">
+      <c r="N25" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O25" s="7" t="str">
+      <c r="O25" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P25" s="7" t="str">
+      <c r="P25" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q25" s="7" t="str">
+      <c r="Q25" s="4" t="str">
         <v>冰女</v>
       </c>
-      <c r="R25" s="2" t="str">
+      <c r="R25" s="3" t="str">
         <v>冰钻剑</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="26">
-      <c r="A26" s="4">
+    <row customHeight="true" ht="25" r="26">
+      <c r="A26" s="3">
         <v>10022</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -6412,65 +6395,65 @@
     ]
 }</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>118142</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>118142</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>121409</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <v>27421</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>10</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>142138</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="3">
         <v>200000</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>164689</v>
       </c>
       <c r="L26" s="1">
         <v>117391</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <v>42805</v>
       </c>
-      <c r="N26" s="7" t="str">
+      <c r="N26" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O26" s="7" t="str">
+      <c r="O26" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P26" s="7" t="str">
+      <c r="P26" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q26" s="7" t="str">
+      <c r="Q26" s="4" t="str">
         <v>兔子</v>
       </c>
-      <c r="R26" s="2" t="str">
+      <c r="R26" s="3" t="str">
         <v>屠刀</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="27">
-      <c r="A27" s="4">
+    <row customHeight="true" ht="25" r="27">
+      <c r="A27" s="3">
         <v>10023</v>
       </c>
       <c r="B27" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120","moveSpeed":"300"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>210651</v>
       </c>
       <c r="D27" s="1"/>
@@ -6483,14 +6466,14 @@
       <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>142895</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>193334</v>
       </c>
       <c r="L27" s="1">
@@ -6511,14 +6494,14 @@
       <c r="Q27" s="1" t="str">
         <v>洛基</v>
       </c>
-      <c r="R27" s="3" t="str">
+      <c r="R27" s="2" t="str">
         <v>蓝色法杖</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="28">
-      <c r="A28" s="4">
+    <row customHeight="true" ht="25" r="28">
+      <c r="A28" s="3">
         <v>10024</v>
       </c>
       <c r="B28" s="1" t="str">
@@ -7305,7 +7288,7 @@
     ]
 }</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>121672</v>
       </c>
       <c r="D28" s="1"/>
@@ -7318,14 +7301,14 @@
       <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>141498</v>
       </c>
       <c r="I28" s="1">
         <v>3</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>193346</v>
       </c>
       <c r="L28" s="1">
@@ -7346,42 +7329,42 @@
       <c r="Q28" s="1" t="str">
         <v>太阳神</v>
       </c>
-      <c r="R28" s="3" t="str">
+      <c r="R28" s="2" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="29">
-      <c r="A29" s="4">
+    <row customHeight="true" ht="25" r="29">
+      <c r="A29" s="3">
         <v>10025</v>
       </c>
       <c r="B29" s="1" t="str">
         <v>{"charFightIdelAniId":"117403","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400"},{"type":"1","guid":"117382","duration":"1800","hitLength":"500","frontRockLength":"1300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123289","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"600","offsetPos":["280","0","-40"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123287","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"2500","offsetPos":["180","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"360","skillOffsetDis":"0","skillRadius":"320","skillHeight":"230","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>122956</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>122956</v>
       </c>
       <c r="E29" s="1">
         <v>121409</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="4">
         <v>27421</v>
       </c>
       <c r="G29" s="1">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>143229</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>193349</v>
       </c>
       <c r="L29" s="1">
@@ -7402,20 +7385,20 @@
       <c r="Q29" s="1" t="str">
         <v>宇智波斑</v>
       </c>
-      <c r="R29" s="3" t="str">
+      <c r="R29" s="2" t="str">
         <v>恶魔剑</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="30">
-      <c r="A30" s="4">
+    <row customHeight="true" ht="25" r="30">
+      <c r="A30" s="3">
         <v>10026</v>
       </c>
       <c r="B30" s="1" t="str">
         <v>{"charFightIdelAniId":"111095","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"1","guid":"111102","duration":"600","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-15","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111100","duration":"1100","hitLength":"300","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116455","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>103068</v>
       </c>
       <c r="D30" s="1"/>
@@ -7428,14 +7411,14 @@
       <c r="G30" s="1">
         <v>10</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>142255</v>
       </c>
       <c r="I30" s="1">
         <v>3</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>193336</v>
       </c>
       <c r="L30" s="1">
@@ -7456,20 +7439,20 @@
       <c r="Q30" s="1" t="str">
         <v>纳米机甲女性</v>
       </c>
-      <c r="R30" s="3" t="str">
+      <c r="R30" s="2" t="str">
         <v>剑</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="31">
-      <c r="A31" s="4">
+    <row customHeight="true" ht="25" r="31">
+      <c r="A31" s="3">
         <v>10027</v>
       </c>
       <c r="B31" s="1" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>103083</v>
       </c>
       <c r="D31" s="1">
@@ -7484,14 +7467,14 @@
       <c r="G31" s="1">
         <v>10</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>142903</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>193344</v>
       </c>
       <c r="L31" s="1">
@@ -7512,20 +7495,20 @@
       <c r="Q31" s="1" t="str">
         <v>死侍</v>
       </c>
-      <c r="R31" s="3" t="str">
+      <c r="R31" s="2" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="32">
-      <c r="A32" s="4">
+    <row customHeight="true" ht="25" r="32">
+      <c r="A32" s="3">
         <v>10028</v>
       </c>
       <c r="B32" s="1" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>198698</v>
       </c>
       <c r="D32" s="1">
@@ -7540,14 +7523,14 @@
       <c r="G32" s="1">
         <v>10</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>142293</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>193341</v>
       </c>
       <c r="L32" s="1">
@@ -7565,23 +7548,23 @@
       <c r="P32" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="Q32" s="3" t="str">
+      <c r="Q32" s="2" t="str">
         <v>火山哨兵</v>
       </c>
-      <c r="R32" s="10" t="str" xml:space="preserve">
+      <c r="R32" s="11" t="str" xml:space="preserve">
         <v>  荧光剑</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="33">
-      <c r="A33" s="4">
+    <row customHeight="true" ht="25" r="33">
+      <c r="A33" s="3">
         <v>10029</v>
       </c>
       <c r="B33" s="1" t="str">
         <v>{"charFightIdelAniId":"111092","infos":[{"type":"1","guid":"111094","duration":"900","hitLength":"550","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["155","13","27"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111098","duration":"900","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","-10"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111099","duration":"1900","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113921","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-180","skillRadius":"0","skillHeight":"80","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"111097","duration":"1900","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113920","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","0"],"offsetRotation":["35","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>29057</v>
       </c>
       <c r="D33" s="1"/>
@@ -7594,14 +7577,14 @@
       <c r="G33" s="1">
         <v>10</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>142262</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
         <v>193348</v>
       </c>
       <c r="L33" s="1">
@@ -7622,20 +7605,20 @@
       <c r="Q33" s="1" t="str">
         <v>绯红女巫</v>
       </c>
-      <c r="R33" s="10" t="str">
+      <c r="R33" s="11" t="str">
         <v>狂热剑</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="34">
-      <c r="A34" s="4">
+    <row customHeight="true" ht="25" r="34">
+      <c r="A34" s="3">
         <v>10030</v>
       </c>
       <c r="B34" s="1" t="str">
         <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>272130</v>
       </c>
       <c r="D34" s="1">
@@ -7650,14 +7633,14 @@
       <c r="G34" s="1">
         <v>10</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>142894</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>3</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
         <v>193351</v>
       </c>
       <c r="L34" s="1">
@@ -7678,20 +7661,20 @@
       <c r="Q34" s="1" t="str">
         <v>雷神</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="8">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="35">
-      <c r="A35" s="4">
+    <row customHeight="true" ht="25" r="35">
+      <c r="A35" s="3">
         <v>10031</v>
       </c>
       <c r="B35" s="1" t="str">
         <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>300436</v>
       </c>
       <c r="D35" s="1"/>
@@ -7704,14 +7687,14 @@
       <c r="G35" s="1">
         <v>10</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>142907</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>3</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
         <v>193350</v>
       </c>
       <c r="L35" s="1">
@@ -7732,20 +7715,20 @@
       <c r="Q35" s="1" t="str">
         <v>蜘蛛侠</v>
       </c>
-      <c r="R35" s="5" t="str">
+      <c r="R35" s="8" t="str">
         <v>木法杖</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="36">
-      <c r="A36" s="4">
+    <row customHeight="true" ht="25" r="36">
+      <c r="A36" s="3">
         <v>10032</v>
       </c>
       <c r="B36" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>121541</v>
       </c>
       <c r="D36" s="1"/>
@@ -7758,14 +7741,14 @@
       <c r="G36" s="1">
         <v>10</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>142294</v>
       </c>
       <c r="I36" s="1">
         <v>3</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>193332</v>
       </c>
       <c r="L36" s="1">
@@ -7786,20 +7769,20 @@
       <c r="Q36" s="1" t="str">
         <v>女浩克</v>
       </c>
-      <c r="R36" s="5" t="str">
+      <c r="R36" s="8" t="str">
         <v>瓜子盾</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="37">
-      <c r="A37" s="4">
+    <row customHeight="true" ht="25" r="37">
+      <c r="A37" s="3">
         <v>10033</v>
       </c>
       <c r="B37" s="1" t="str">
         <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>122950</v>
       </c>
       <c r="D37" s="1"/>
@@ -7812,14 +7795,14 @@
       <c r="G37" s="1">
         <v>10</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>142897</v>
       </c>
       <c r="I37" s="1">
         <v>3</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>193342</v>
       </c>
       <c r="L37" s="1">
@@ -7840,20 +7823,20 @@
       <c r="Q37" s="1" t="str">
         <v>绿巨人</v>
       </c>
-      <c r="R37" s="5" t="str">
+      <c r="R37" s="8" t="str">
         <v>盾</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="38">
-      <c r="A38" s="4">
+    <row customHeight="true" ht="25" r="38">
+      <c r="A38" s="3">
         <v>10034</v>
       </c>
       <c r="B38" s="1" t="str">
         <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>31734</v>
       </c>
       <c r="D38" s="1"/>
@@ -7866,14 +7849,14 @@
       <c r="G38" s="1">
         <v>10</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>142272</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>193347</v>
       </c>
       <c r="L38" s="1">
@@ -7894,20 +7877,20 @@
       <c r="Q38" s="1" t="str">
         <v>机甲少女</v>
       </c>
-      <c r="R38" s="9" t="str">
+      <c r="R38" s="5" t="str">
         <v>终极冰环剑</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="39">
-      <c r="A39" s="4">
+    <row customHeight="true" ht="25" r="39">
+      <c r="A39" s="3">
         <v>10035</v>
       </c>
       <c r="B39" s="1" t="str">
         <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>155702</v>
       </c>
       <c r="D39" s="1">
@@ -7922,14 +7905,14 @@
       <c r="G39" s="1">
         <v>10</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>142913</v>
       </c>
       <c r="I39" s="1">
         <v>3</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>193339</v>
       </c>
       <c r="L39" s="1">
@@ -7950,20 +7933,20 @@
       <c r="Q39" s="1" t="str">
         <v>雏田</v>
       </c>
-      <c r="R39" s="9" t="str">
+      <c r="R39" s="5" t="str">
         <v>散弹喷枪</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="40">
-      <c r="A40" s="4">
+    <row customHeight="true" ht="25" r="40">
+      <c r="A40" s="3">
         <v>10036</v>
       </c>
       <c r="B40" s="1" t="str">
         <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>122726</v>
       </c>
       <c r="D40" s="1">
@@ -7978,14 +7961,14 @@
       <c r="G40" s="1">
         <v>10</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>142922</v>
       </c>
       <c r="I40" s="1">
         <v>3</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>193353</v>
       </c>
       <c r="L40" s="1">
@@ -8006,14 +7989,14 @@
       <c r="Q40" s="1" t="str">
         <v>路飞</v>
       </c>
-      <c r="R40" s="9" t="str">
+      <c r="R40" s="5" t="str">
         <v>火枪</v>
       </c>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="41">
-      <c r="A41" s="4">
+    <row customHeight="true" ht="25" r="41">
+      <c r="A41" s="3">
         <v>10037</v>
       </c>
       <c r="B41" s="1" t="str">
@@ -8032,14 +8015,14 @@
       <c r="G41" s="1">
         <v>10</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>143236</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>193335</v>
       </c>
       <c r="L41" s="1">
@@ -8060,20 +8043,20 @@
       <c r="Q41" s="1" t="str">
         <v>佐助</v>
       </c>
-      <c r="R41" s="9" t="str">
+      <c r="R41" s="5" t="str">
         <v>紫光剑</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="42">
-      <c r="A42" s="4">
+    <row customHeight="true" ht="25" r="42">
+      <c r="A42" s="3">
         <v>10038</v>
       </c>
       <c r="B42" s="1" t="str">
         <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>222534</v>
       </c>
       <c r="D42" s="1">
@@ -8088,14 +8071,14 @@
       <c r="G42" s="1">
         <v>10</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>142310</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>193354</v>
       </c>
       <c r="L42" s="1">
@@ -8116,20 +8099,20 @@
       <c r="Q42" s="1" t="str">
         <v>天神</v>
       </c>
-      <c r="R42" s="9" t="str">
+      <c r="R42" s="5" t="str">
         <v>激光枪</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="43">
-      <c r="A43" s="4">
+    <row customHeight="true" ht="25" r="43">
+      <c r="A43" s="3">
         <v>10039</v>
       </c>
       <c r="B43" s="1" t="str">
         <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>269895</v>
       </c>
       <c r="D43" s="1">
@@ -8144,14 +8127,14 @@
       <c r="G43" s="1">
         <v>10</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>142892</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>3</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
         <v>193352</v>
       </c>
       <c r="L43" s="1">
@@ -8172,14 +8155,14 @@
       <c r="Q43" s="1" t="str">
         <v>金刚狼</v>
       </c>
-      <c r="R43" s="5" t="str">
+      <c r="R43" s="8" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="44">
-      <c r="A44" s="4">
+    <row customHeight="true" ht="25" r="44">
+      <c r="A44" s="3">
         <v>10040</v>
       </c>
       <c r="B44" s="1" t="str">
@@ -8721,7 +8704,7 @@
     ]
 }</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>122720</v>
       </c>
       <c r="D44" s="1">
@@ -8736,14 +8719,14 @@
       <c r="G44" s="1">
         <v>10</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>142888</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>3</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
         <v>193355</v>
       </c>
       <c r="L44" s="1">
@@ -8764,11 +8747,11 @@
       <c r="Q44" s="1" t="str">
         <v>钢铁侠</v>
       </c>
-      <c r="R44" s="5" t="str">
+      <c r="R44" s="8" t="str">
         <v>激光枪</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/infinite/Excel/ColdWeapon_冷兵器表.xlsx
+++ b/infinite/Excel/ColdWeapon_冷兵器表.xlsx
@@ -55,13 +55,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,14 +69,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
+      <color rgb="FF606266"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF606266"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,6 +90,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,7 +104,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +118,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,16 +246,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
@@ -618,200 +618,200 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="7" t="str">
+      <c r="B1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="7" t="str">
+      <c r="C1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="7" t="str">
+      <c r="D1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="7" t="str">
+      <c r="G1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="7" t="str">
+      <c r="H1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="I1" s="7" t="str">
+      <c r="I1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="7" t="str">
+      <c r="J1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="K1" s="7" t="str">
+      <c r="K1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="7" t="str">
+      <c r="L1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="M1" s="7" t="str">
+      <c r="M1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="N1" s="7" t="str">
+      <c r="N1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="O1" s="7" t="str">
+      <c r="O1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="P1" s="7" t="str">
+      <c r="P1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="7" t="str">
+      <c r="A2" s="6" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="6" t="str">
         <v>jsons</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="6" t="str">
         <v>rightWeaponGuid</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="2" t="str">
         <v>leftWeaponGuid</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="2" t="str">
         <v>hitAnimation</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="2" t="str">
         <v>hitEffect</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="2" t="str">
         <v>hitDamage</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="2" t="str">
         <v>Role</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="2" t="str">
         <v>RoleType</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="2" t="str">
         <v>Price</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" s="2" t="str">
         <v>RoleIcon</v>
       </c>
-      <c r="L2" s="3" t="str">
+      <c r="L2" s="2" t="str">
         <v>StandbyAnimation</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="2" t="str">
         <v>EffectId</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="N2" s="2" t="str">
         <v>EffectOffset</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="O2" s="2" t="str">
         <v>EffectRot</v>
       </c>
-      <c r="P2" s="3" t="str">
+      <c r="P2" s="2" t="str">
         <v>EffectScale</v>
       </c>
-      <c r="Q2" s="3" t="str">
+      <c r="Q2" s="2" t="str">
         <v>Del</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row customHeight="true" ht="65" r="3">
-      <c r="A3" s="7" t="str">
+      <c r="A3" s="6" t="str">
         <v>id</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="6" t="str">
         <v>动作数据</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <v>右手装备</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="2" t="str">
         <v>左手装备</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="2" t="str">
         <v>受击动画</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="2" t="str">
         <v>命中特效</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="2" t="str">
         <v>伤害</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="2" t="str">
         <v>角色</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="2" t="str">
         <v>角色类型
 1-免费
 2-金币购买
 3-广告限时</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="2" t="str">
         <v>价格</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="2" t="str">
         <v>角色Icon</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="L3" s="2" t="str">
         <v>待机动画</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="2" t="str">
         <v>特效id</v>
       </c>
-      <c r="N3" s="3" t="str">
+      <c r="N3" s="2" t="str">
         <v>特效偏移</v>
       </c>
-      <c r="O3" s="3" t="str">
+      <c r="O3" s="2" t="str">
         <v>特效旋转</v>
       </c>
-      <c r="P3" s="3" t="str">
+      <c r="P3" s="2" t="str">
         <v>特效缩放</v>
       </c>
-      <c r="Q3" s="3" t="str">
+      <c r="Q3" s="2" t="str">
         <v>注释</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="str">
@@ -825,12 +825,12 @@
         <v>121409</v>
       </c>
       <c r="F5" s="1">
-        <v>117224</v>
+        <v>27421</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>142932</v>
       </c>
       <c r="I5" s="1">
@@ -860,14 +860,14 @@
       <c r="Q5" s="1" t="str">
         <v>悟空</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="11">
         <v>0</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -1037,12 +1037,12 @@
         <v>121409</v>
       </c>
       <c r="F6" s="1">
-        <v>117224</v>
+        <v>27421</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>141618</v>
       </c>
       <c r="I6" s="1">
@@ -1072,14 +1072,14 @@
       <c r="Q6" s="1" t="str">
         <v>赛博自来也</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <v>0</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="str">
@@ -1093,12 +1093,12 @@
         <v>121409</v>
       </c>
       <c r="F7" s="1">
-        <v>117224</v>
+        <v>27421</v>
       </c>
       <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>142889</v>
       </c>
       <c r="I7" s="1">
@@ -1128,14 +1128,14 @@
       <c r="Q7" s="1" t="str">
         <v>海王</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="11">
         <v>0</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="str">
@@ -1156,7 +1156,7 @@
       <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>142898</v>
       </c>
       <c r="I8" s="1">
@@ -1165,7 +1165,7 @@
       <c r="J8" s="1">
         <v>66666</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="7">
         <v>193340</v>
       </c>
       <c r="L8" s="1">
@@ -1186,14 +1186,14 @@
       <c r="Q8" s="1" t="str">
         <v>美国队长</v>
       </c>
-      <c r="R8" s="2" t="str">
+      <c r="R8" s="7" t="str">
         <v>神锤</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>10005</v>
       </c>
       <c r="B9" s="1" t="str">
@@ -1207,12 +1207,12 @@
         <v>121409</v>
       </c>
       <c r="F9" s="1">
-        <v>117224</v>
+        <v>27421</v>
       </c>
       <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>142886</v>
       </c>
       <c r="I9" s="1">
@@ -1221,7 +1221,7 @@
       <c r="J9" s="1">
         <v>100000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="7">
         <v>193345</v>
       </c>
       <c r="L9" s="1">
@@ -1242,14 +1242,14 @@
       <c r="Q9" s="1" t="str">
         <v>毒液</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="7">
         <v>0</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>10006</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -1270,7 +1270,7 @@
       <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>142899</v>
       </c>
       <c r="I10" s="1">
@@ -1279,7 +1279,7 @@
       <c r="J10" s="1">
         <v>120000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>193333</v>
       </c>
       <c r="L10" s="1">
@@ -1300,14 +1300,14 @@
       <c r="Q10" s="1" t="str">
         <v>灭霸拳套</v>
       </c>
-      <c r="R10" s="2" t="str">
+      <c r="R10" s="7" t="str">
         <v>斧头</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10007</v>
       </c>
       <c r="B11" s="1" t="str">
@@ -1326,7 +1326,7 @@
       <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>142925</v>
       </c>
       <c r="I11" s="1">
@@ -1335,7 +1335,7 @@
       <c r="J11" s="1">
         <v>150000</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="7">
         <v>193338</v>
       </c>
       <c r="L11" s="1">
@@ -1356,20 +1356,20 @@
       <c r="Q11" s="1" t="str">
         <v>鸣人</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="7">
         <v>0</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10008</v>
       </c>
       <c r="B12" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>218730</v>
       </c>
       <c r="D12" s="1">
@@ -1384,7 +1384,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="7" t="str">
         <v>EE5F536B4DD23D7B7684669580687A3C</v>
       </c>
       <c r="I12" s="1">
@@ -1411,20 +1411,20 @@
       <c r="P12" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q12" s="2" t="str">
+      <c r="Q12" s="7" t="str">
         <v>未来战士</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="7">
         <v>0</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>10009</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1583,58 +1583,58 @@
     ]
 }</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>210791</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>121409</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>163337</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>142896</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>5000</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>164634</v>
       </c>
       <c r="L13" s="1">
         <v>117391</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>42805</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="N13" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O13" s="4" t="str">
+      <c r="O13" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P13" s="4" t="str">
+      <c r="P13" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q13" s="4" t="str">
+      <c r="Q13" s="3" t="str">
         <v>森林哨兵</v>
       </c>
       <c r="R13" s="5"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10010</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1831,62 +1831,62 @@
     ]
 }</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>221099</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>221099</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>121409</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>135892</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>10</v>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="H14" s="3" t="str">
         <v>90CDCFD5497992D511E6E38B7015C795</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>2</v>
       </c>
       <c r="J14" s="1">
         <v>20000</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>164671</v>
       </c>
       <c r="L14" s="1">
         <v>117391</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>42818</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="N14" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="O14" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P14" s="4" t="str">
+      <c r="P14" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q14" s="4" t="str">
+      <c r="Q14" s="3" t="str">
         <v>索尼克</v>
       </c>
       <c r="R14" s="5" t="str">
         <v>手枪</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2083,31 +2083,31 @@
     ]
 }</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>43702</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>43702</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>121409</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>142950</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>10</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>142901</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>2</v>
       </c>
       <c r="J15" s="1">
         <v>30000</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>164652</v>
       </c>
       <c r="L15" s="1">
@@ -2125,20 +2125,20 @@
       <c r="P15" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q15" s="4" t="str">
+      <c r="Q15" s="3" t="str">
         <v>粉毛怪</v>
       </c>
       <c r="R15" s="5" t="str">
         <v>信号枪</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2411,20 +2411,20 @@
     ]
 }</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>103067</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>121409</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>135892</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>10</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>142918</v>
       </c>
       <c r="I16" s="1">
@@ -2433,7 +2433,7 @@
       <c r="J16" s="1">
         <v>88888</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <v>164630</v>
       </c>
       <c r="L16" s="1">
@@ -2451,20 +2451,20 @@
       <c r="P16" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q16" s="4" t="str">
+      <c r="Q16" s="3" t="str">
         <v>纲手</v>
       </c>
       <c r="R16" s="5" t="str">
         <v>刀</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>10013</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2737,20 +2737,20 @@
     ]
 }</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>103080</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>121409</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>135892</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>10</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>142924</v>
       </c>
       <c r="I17" s="1">
@@ -2759,7 +2759,7 @@
       <c r="J17" s="1">
         <v>88888</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>164626</v>
       </c>
       <c r="L17" s="1">
@@ -2777,20 +2777,20 @@
       <c r="P17" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q17" s="4" t="str">
+      <c r="Q17" s="3" t="str">
         <v>李洛克</v>
       </c>
       <c r="R17" s="5" t="str">
         <v>刀</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>10014</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2911,20 +2911,20 @@
     ]
 }</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>103075</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>121409</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>168828</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>10</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>142917</v>
       </c>
       <c r="I18" s="1">
@@ -2933,38 +2933,38 @@
       <c r="J18" s="1">
         <v>166666</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <v>164648</v>
       </c>
       <c r="L18" s="1">
         <v>117391</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>42818</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="N18" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O18" s="4" t="str">
+      <c r="O18" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P18" s="4" t="str">
+      <c r="P18" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q18" s="4" t="str">
+      <c r="Q18" s="3" t="str">
         <v>干柿鬼鲛</v>
       </c>
       <c r="R18" s="5" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>10015</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3579,20 +3579,20 @@
     ]
 }</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>122946</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>121409</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>151551</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>10</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="H19" s="3" t="str">
         <v>409EBB1E48B099BDC8F15192C6443591</v>
       </c>
       <c r="I19" s="1">
@@ -3601,7 +3601,7 @@
       <c r="J19" s="1">
         <v>999999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>54193</v>
       </c>
       <c r="L19" s="1">
@@ -3616,23 +3616,23 @@
       <c r="O19" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P19" s="4" t="str">
+      <c r="P19" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q19" s="4" t="str">
+      <c r="Q19" s="3" t="str">
         <v>赛博女孩</v>
       </c>
       <c r="R19" s="5" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>10016</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4171,20 +4171,20 @@
     ]
 }</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>31710</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>121409</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>27422</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>10</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>142891</v>
       </c>
       <c r="I20" s="1">
@@ -4193,7 +4193,7 @@
       <c r="J20" s="1">
         <v>288888</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <v>164656</v>
       </c>
       <c r="L20" s="1">
@@ -4202,29 +4202,29 @@
       <c r="M20" s="1">
         <v>42804</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="N20" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O20" s="4" t="str">
+      <c r="O20" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P20" s="4" t="str">
+      <c r="P20" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q20" s="4" t="str">
+      <c r="Q20" s="3" t="str">
         <v>黑寡妇</v>
       </c>
       <c r="R20" s="5" t="str">
         <v>冰封剑</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>10017</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4345,20 +4345,20 @@
     ]
 }</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>103069</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>121409</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>13418</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>10</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>142919</v>
       </c>
       <c r="I21" s="1">
@@ -4367,7 +4367,7 @@
       <c r="J21" s="1">
         <v>128888</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <v>164661</v>
       </c>
       <c r="L21" s="1">
@@ -4385,20 +4385,20 @@
       <c r="P21" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q21" s="4" t="str">
+      <c r="Q21" s="3" t="str">
         <v>怪物爪子</v>
       </c>
       <c r="R21" s="5" t="str">
         <v>刀</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>10018</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4861,31 +4861,31 @@
     ]
 }</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>122961</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>122961</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>121409</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>13418</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>10</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>142920</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>2</v>
       </c>
       <c r="J22" s="1">
         <v>688888</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>164654</v>
       </c>
       <c r="L22" s="1">
@@ -4894,27 +4894,27 @@
       <c r="M22" s="1">
         <v>42804</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="N22" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O22" s="4" t="str">
+      <c r="O22" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P22" s="4" t="str">
+      <c r="P22" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q22" s="4" t="str">
+      <c r="Q22" s="3" t="str">
         <v>卡卡西</v>
       </c>
       <c r="R22" s="5"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>10019</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5263,29 +5263,29 @@
     ]
 }</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>272767</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>121409</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>27421</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>10</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>143231</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>488888</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <v>164662</v>
       </c>
       <c r="L23" s="1">
@@ -5294,29 +5294,29 @@
       <c r="M23" s="1">
         <v>42804</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="N23" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="O23" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P23" s="4" t="str">
+      <c r="P23" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q23" s="4" t="str">
+      <c r="Q23" s="3" t="str">
         <v>鼬</v>
       </c>
-      <c r="R23" s="3" t="str">
+      <c r="R23" s="2" t="str">
         <v>法杖</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>10020</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5551,31 +5551,31 @@
     ]
 }</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>166941</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>166941</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>121409</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>27421</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>10</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>142915</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>100000</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <v>164643</v>
       </c>
       <c r="L24" s="1">
@@ -5584,29 +5584,29 @@
       <c r="M24" s="1">
         <v>42804</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="N24" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O24" s="4" t="str">
+      <c r="O24" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P24" s="4" t="str">
+      <c r="P24" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q24" s="4" t="str">
+      <c r="Q24" s="3" t="str">
         <v>大蛇丸</v>
       </c>
-      <c r="R24" s="3" t="str">
+      <c r="R24" s="2" t="str">
         <v>水枪</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>10021</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5955,60 +5955,60 @@
     ]
 }</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>31712</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>121409</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>27421</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>10</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="H25" s="3" t="str">
         <v>0D2FE7104CD5DE0291C71B964C7C7AAC</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>200000</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>164672</v>
       </c>
       <c r="L25" s="1">
         <v>111092</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>42805</v>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="N25" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O25" s="4" t="str">
+      <c r="O25" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P25" s="4" t="str">
+      <c r="P25" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q25" s="4" t="str">
+      <c r="Q25" s="3" t="str">
         <v>冰女</v>
       </c>
-      <c r="R25" s="3" t="str">
+      <c r="R25" s="2" t="str">
         <v>冰钻剑</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>10022</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="3" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -6395,65 +6395,65 @@
     ]
 }</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>118142</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>118142</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>121409</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>27421</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>10</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>142138</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>200000</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>164689</v>
       </c>
       <c r="L26" s="1">
         <v>117391</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>42805</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="N26" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O26" s="4" t="str">
+      <c r="O26" s="3" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P26" s="4" t="str">
+      <c r="P26" s="3" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q26" s="4" t="str">
+      <c r="Q26" s="3" t="str">
         <v>兔子</v>
       </c>
-      <c r="R26" s="3" t="str">
+      <c r="R26" s="2" t="str">
         <v>屠刀</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>10023</v>
       </c>
       <c r="B27" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120","moveSpeed":"300"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>210651</v>
       </c>
       <c r="D27" s="1"/>
@@ -6466,14 +6466,14 @@
       <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="7">
         <v>142895</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="2">
+      <c r="K27" s="7">
         <v>193334</v>
       </c>
       <c r="L27" s="1">
@@ -6494,14 +6494,14 @@
       <c r="Q27" s="1" t="str">
         <v>洛基</v>
       </c>
-      <c r="R27" s="2" t="str">
+      <c r="R27" s="7" t="str">
         <v>蓝色法杖</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>10024</v>
       </c>
       <c r="B28" s="1" t="str">
@@ -7288,7 +7288,7 @@
     ]
 }</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>121672</v>
       </c>
       <c r="D28" s="1"/>
@@ -7301,14 +7301,14 @@
       <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="7">
         <v>141498</v>
       </c>
       <c r="I28" s="1">
         <v>3</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="2">
+      <c r="K28" s="7">
         <v>193346</v>
       </c>
       <c r="L28" s="1">
@@ -7329,42 +7329,42 @@
       <c r="Q28" s="1" t="str">
         <v>太阳神</v>
       </c>
-      <c r="R28" s="2" t="str">
+      <c r="R28" s="7" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>10025</v>
       </c>
       <c r="B29" s="1" t="str">
         <v>{"charFightIdelAniId":"117403","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400"},{"type":"1","guid":"117382","duration":"1800","hitLength":"500","frontRockLength":"1300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123289","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"600","offsetPos":["280","0","-40"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123287","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"2500","offsetPos":["180","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"360","skillOffsetDis":"0","skillRadius":"320","skillHeight":"230","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>122956</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>122956</v>
       </c>
       <c r="E29" s="1">
         <v>121409</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>27421</v>
       </c>
       <c r="G29" s="1">
         <v>10</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="7">
         <v>143229</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="2">
+      <c r="K29" s="7">
         <v>193349</v>
       </c>
       <c r="L29" s="1">
@@ -7385,20 +7385,20 @@
       <c r="Q29" s="1" t="str">
         <v>宇智波斑</v>
       </c>
-      <c r="R29" s="2" t="str">
+      <c r="R29" s="7" t="str">
         <v>恶魔剑</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>10026</v>
       </c>
       <c r="B30" s="1" t="str">
         <v>{"charFightIdelAniId":"111095","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"1","guid":"111102","duration":"600","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-15","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111100","duration":"1100","hitLength":"300","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116455","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>103068</v>
       </c>
       <c r="D30" s="1"/>
@@ -7411,14 +7411,14 @@
       <c r="G30" s="1">
         <v>10</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="7">
         <v>142255</v>
       </c>
       <c r="I30" s="1">
         <v>3</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="2">
+      <c r="K30" s="7">
         <v>193336</v>
       </c>
       <c r="L30" s="1">
@@ -7439,20 +7439,20 @@
       <c r="Q30" s="1" t="str">
         <v>纳米机甲女性</v>
       </c>
-      <c r="R30" s="2" t="str">
+      <c r="R30" s="7" t="str">
         <v>剑</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>10027</v>
       </c>
       <c r="B31" s="1" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>103083</v>
       </c>
       <c r="D31" s="1">
@@ -7467,14 +7467,14 @@
       <c r="G31" s="1">
         <v>10</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="7">
         <v>142903</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="2">
+      <c r="K31" s="7">
         <v>193344</v>
       </c>
       <c r="L31" s="1">
@@ -7495,20 +7495,20 @@
       <c r="Q31" s="1" t="str">
         <v>死侍</v>
       </c>
-      <c r="R31" s="2" t="str">
+      <c r="R31" s="7" t="str">
         <v>镰刀</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>10028</v>
       </c>
       <c r="B32" s="1" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>198698</v>
       </c>
       <c r="D32" s="1">
@@ -7523,14 +7523,14 @@
       <c r="G32" s="1">
         <v>10</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="7">
         <v>142293</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="2">
+      <c r="K32" s="7">
         <v>193341</v>
       </c>
       <c r="L32" s="1">
@@ -7548,23 +7548,23 @@
       <c r="P32" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="Q32" s="2" t="str">
+      <c r="Q32" s="7" t="str">
         <v>火山哨兵</v>
       </c>
-      <c r="R32" s="11" t="str" xml:space="preserve">
+      <c r="R32" s="9" t="str" xml:space="preserve">
         <v>  荧光剑</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>10029</v>
       </c>
       <c r="B33" s="1" t="str">
         <v>{"charFightIdelAniId":"111092","infos":[{"type":"1","guid":"111094","duration":"900","hitLength":"550","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["155","13","27"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111098","duration":"900","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","-10"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111099","duration":"1900","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113921","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-180","skillRadius":"0","skillHeight":"80","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"111097","duration":"1900","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113920","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","0"],"offsetRotation":["35","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>29057</v>
       </c>
       <c r="D33" s="1"/>
@@ -7577,14 +7577,14 @@
       <c r="G33" s="1">
         <v>10</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="7">
         <v>142262</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="7">
         <v>3</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2">
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
         <v>193348</v>
       </c>
       <c r="L33" s="1">
@@ -7605,20 +7605,20 @@
       <c r="Q33" s="1" t="str">
         <v>绯红女巫</v>
       </c>
-      <c r="R33" s="11" t="str">
+      <c r="R33" s="9" t="str">
         <v>狂热剑</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>10030</v>
       </c>
       <c r="B34" s="1" t="str">
         <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>272130</v>
       </c>
       <c r="D34" s="1">
@@ -7633,14 +7633,14 @@
       <c r="G34" s="1">
         <v>10</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="7">
         <v>142894</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="7">
         <v>3</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2">
+      <c r="J34" s="7"/>
+      <c r="K34" s="7">
         <v>193351</v>
       </c>
       <c r="L34" s="1">
@@ -7664,17 +7664,17 @@
       <c r="R34" s="8">
         <v>0</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>10031</v>
       </c>
       <c r="B35" s="1" t="str">
         <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>300436</v>
       </c>
       <c r="D35" s="1"/>
@@ -7682,19 +7682,19 @@
         <v>121409</v>
       </c>
       <c r="F35" s="1">
-        <v>117224</v>
+        <v>27421</v>
       </c>
       <c r="G35" s="1">
         <v>10</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="7">
         <v>142907</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="7">
         <v>3</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2">
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
         <v>193350</v>
       </c>
       <c r="L35" s="1">
@@ -7718,17 +7718,17 @@
       <c r="R35" s="8" t="str">
         <v>木法杖</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>10032</v>
       </c>
       <c r="B36" s="1" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>121541</v>
       </c>
       <c r="D36" s="1"/>
@@ -7741,14 +7741,14 @@
       <c r="G36" s="1">
         <v>10</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="7">
         <v>142294</v>
       </c>
       <c r="I36" s="1">
         <v>3</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="2">
+      <c r="K36" s="7">
         <v>193332</v>
       </c>
       <c r="L36" s="1">
@@ -7772,17 +7772,17 @@
       <c r="R36" s="8" t="str">
         <v>瓜子盾</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>10033</v>
       </c>
       <c r="B37" s="1" t="str">
         <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>122950</v>
       </c>
       <c r="D37" s="1"/>
@@ -7795,14 +7795,14 @@
       <c r="G37" s="1">
         <v>10</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="7">
         <v>142897</v>
       </c>
       <c r="I37" s="1">
         <v>3</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="2">
+      <c r="K37" s="7">
         <v>193342</v>
       </c>
       <c r="L37" s="1">
@@ -7826,17 +7826,17 @@
       <c r="R37" s="8" t="str">
         <v>盾</v>
       </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>10034</v>
       </c>
       <c r="B38" s="1" t="str">
         <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>31734</v>
       </c>
       <c r="D38" s="1"/>
@@ -7849,14 +7849,14 @@
       <c r="G38" s="1">
         <v>10</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="7">
         <v>142272</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="2">
+      <c r="K38" s="7">
         <v>193347</v>
       </c>
       <c r="L38" s="1">
@@ -7880,17 +7880,17 @@
       <c r="R38" s="5" t="str">
         <v>终极冰环剑</v>
       </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>10035</v>
       </c>
       <c r="B39" s="1" t="str">
         <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>155702</v>
       </c>
       <c r="D39" s="1">
@@ -7905,14 +7905,14 @@
       <c r="G39" s="1">
         <v>10</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="7">
         <v>142913</v>
       </c>
       <c r="I39" s="1">
         <v>3</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="2">
+      <c r="K39" s="7">
         <v>193339</v>
       </c>
       <c r="L39" s="1">
@@ -7936,17 +7936,17 @@
       <c r="R39" s="5" t="str">
         <v>散弹喷枪</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>10036</v>
       </c>
       <c r="B40" s="1" t="str">
         <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>122726</v>
       </c>
       <c r="D40" s="1">
@@ -7961,14 +7961,14 @@
       <c r="G40" s="1">
         <v>10</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="7">
         <v>142922</v>
       </c>
       <c r="I40" s="1">
         <v>3</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="2">
+      <c r="K40" s="7">
         <v>193353</v>
       </c>
       <c r="L40" s="1">
@@ -7992,11 +7992,11 @@
       <c r="R40" s="5" t="str">
         <v>火枪</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>10037</v>
       </c>
       <c r="B41" s="1" t="str">
@@ -8015,14 +8015,14 @@
       <c r="G41" s="1">
         <v>10</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="7">
         <v>143236</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="2">
+      <c r="K41" s="7">
         <v>193335</v>
       </c>
       <c r="L41" s="1">
@@ -8046,17 +8046,17 @@
       <c r="R41" s="5" t="str">
         <v>紫光剑</v>
       </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>10038</v>
       </c>
       <c r="B42" s="1" t="str">
         <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>222534</v>
       </c>
       <c r="D42" s="1">
@@ -8071,14 +8071,14 @@
       <c r="G42" s="1">
         <v>10</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="7">
         <v>142310</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="2">
+      <c r="K42" s="7">
         <v>193354</v>
       </c>
       <c r="L42" s="1">
@@ -8102,17 +8102,17 @@
       <c r="R42" s="5" t="str">
         <v>激光枪</v>
       </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>10039</v>
       </c>
       <c r="B43" s="1" t="str">
         <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>269895</v>
       </c>
       <c r="D43" s="1">
@@ -8127,14 +8127,14 @@
       <c r="G43" s="1">
         <v>10</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="7">
         <v>142892</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="7">
         <v>3</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2">
+      <c r="J43" s="7"/>
+      <c r="K43" s="7">
         <v>193352</v>
       </c>
       <c r="L43" s="1">
@@ -8158,11 +8158,11 @@
       <c r="R43" s="8" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>10040</v>
       </c>
       <c r="B44" s="1" t="str">
@@ -8704,7 +8704,7 @@
     ]
 }</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>122720</v>
       </c>
       <c r="D44" s="1">
@@ -8719,14 +8719,14 @@
       <c r="G44" s="1">
         <v>10</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="7">
         <v>142888</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="7">
         <v>3</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2">
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
         <v>193355</v>
       </c>
       <c r="L44" s="1">
@@ -8750,8 +8750,8 @@
       <c r="R44" s="8" t="str">
         <v>激光枪</v>
       </c>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/infinite/Excel/ColdWeapon_冷兵器表.xlsx
+++ b/infinite/Excel/ColdWeapon_冷兵器表.xlsx
@@ -38,10 +38,31 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF606266"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,28 +76,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF606266"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF667901"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,7 +104,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF34C724"/>
+      <color rgb="FF667901"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,14 +132,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +158,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -233,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,31 +271,37 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,16 +652,16 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="6" t="str">
+      <c r="A1" s="13" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="6" t="str">
+      <c r="C1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="6" t="str">
+      <c r="D1" s="13" t="str">
         <v>string</v>
       </c>
       <c r="E1" s="2" t="str">
@@ -636,34 +670,34 @@
       <c r="F1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="6" t="str">
+      <c r="G1" s="13" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="6" t="str">
+      <c r="H1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="I1" s="6" t="str">
+      <c r="I1" s="13" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="6" t="str">
+      <c r="J1" s="13" t="str">
         <v>int</v>
       </c>
-      <c r="K1" s="6" t="str">
+      <c r="K1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="6" t="str">
+      <c r="L1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="M1" s="6" t="str">
+      <c r="M1" s="13" t="str">
         <v>string</v>
       </c>
-      <c r="N1" s="6" t="str">
+      <c r="N1" s="13" t="str">
         <v>vector3</v>
       </c>
-      <c r="O1" s="6" t="str">
+      <c r="O1" s="13" t="str">
         <v>vector3</v>
       </c>
-      <c r="P1" s="6" t="str">
+      <c r="P1" s="13" t="str">
         <v>vector3</v>
       </c>
       <c r="Q1" s="2" t="str">
@@ -674,13 +708,13 @@
       <c r="T1" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="13" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="13" t="str">
         <v>jsons</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C2" s="13" t="str">
         <v>rightWeaponGuid</v>
       </c>
       <c r="D2" s="2" t="str">
@@ -730,13 +764,13 @@
       <c r="T2" s="2"/>
     </row>
     <row customHeight="true" ht="65" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="13" t="str">
         <v>id</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="13" t="str">
         <v>动作数据</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="13" t="str">
         <v>右手装备</v>
       </c>
       <c r="D3" s="2" t="str">
@@ -789,9 +823,9 @@
       <c r="T3" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -814,50 +848,50 @@
       <c r="A5" s="2">
         <v>10001</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="4" t="str">
         <v>D636AFB34192D6DB62DD059D4F73538A</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>121409</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>27421</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>142932</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>6666</v>
       </c>
-      <c r="K5" s="10" t="str">
+      <c r="K5" s="8" t="str">
         <v>193337</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>117391</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>42830</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="4" t="str">
         <v>0|0|-20</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="4" t="str">
         <v>悟空</v>
       </c>
       <c r="R5" s="11">
@@ -870,7 +904,7 @@
       <c r="A6" s="2">
         <v>10002</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1029,47 +1063,47 @@
     ]
 }</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>122953</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>121409</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>27421</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>141618</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>3000</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="8" t="str">
         <v>193356</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>117391</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>42821</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="N6" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="4" t="str">
         <v>赛博自来也</v>
       </c>
       <c r="R6" s="11">
@@ -1082,50 +1116,50 @@
       <c r="A7" s="2">
         <v>10003</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"85125","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"84952","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","30","70"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"20267","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"84952","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-90","20","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"120","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>118146</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>121409</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>27421</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>142889</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>8888</v>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="8" t="str">
         <v>193343</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>117391</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>42805</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="N7" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="O7" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q7" s="1" t="str">
+      <c r="Q7" s="4" t="str">
         <v>海王</v>
       </c>
       <c r="R7" s="11">
@@ -1138,55 +1172,55 @@
       <c r="A8" s="2">
         <v>10004</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"4","guid":"145579","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"75351","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>152954</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>152954</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>121409</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>135892</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>10</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>142898</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>66666</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>193340</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>121658</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>42818</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="N8" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O8" s="1" t="str">
+      <c r="O8" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P8" s="1" t="str">
+      <c r="P8" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q8" s="1" t="str">
+      <c r="Q8" s="4" t="str">
         <v>美国队长</v>
       </c>
-      <c r="R8" s="7" t="str">
+      <c r="R8" s="5" t="str">
         <v>神锤</v>
       </c>
       <c r="S8" s="2"/>
@@ -1196,53 +1230,53 @@
       <c r="A9" s="2">
         <v>10005</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"150","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"160","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"75372","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"150","skillLength":"800","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>118143</v>
       </c>
-      <c r="D9" s="1" t="str"/>
-      <c r="E9" s="1">
+      <c r="D9" s="4" t="str"/>
+      <c r="E9" s="4">
         <v>121409</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>27421</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>142886</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>100000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>193345</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>121648</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>42828</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="N9" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O9" s="1" t="str">
+      <c r="O9" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="P9" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q9" s="1" t="str">
+      <c r="Q9" s="4" t="str">
         <v>毒液</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="5">
         <v>0</v>
       </c>
       <c r="S9" s="2"/>
@@ -1252,55 +1286,55 @@
       <c r="A10" s="2">
         <v>10006</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"}]}</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>122960</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>122960</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>121409</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>89089</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>142899</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>120000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>193333</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>117391</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>42804</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="N10" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="Q10" s="4" t="str">
         <v>灭霸拳套</v>
       </c>
-      <c r="R10" s="7" t="str">
+      <c r="R10" s="5" t="str">
         <v>斧头</v>
       </c>
       <c r="S10" s="2"/>
@@ -1310,53 +1344,53 @@
       <c r="A11" s="2">
         <v>10007</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="4" t="str">
         <v>{"charFightIdelAniId":"121557","infos":[{"type":"1","guid":"121575","duration":"900","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["160","10","20"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121574","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121573","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["130","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"80","skillWidth":"200"},{"type":"1","guid":"121572","duration":"1200","hitLength":"350","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135889","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-150","skillRadius":"0","skillHeight":"100","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"121571","duration":"1500","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"320","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"160","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135894","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"450","skillWidth":"200"}]}</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>33861</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>121409</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>135892</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>10</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>142925</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>150000</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>193338</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>121557</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>42804</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="N11" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O11" s="1" t="str">
+      <c r="O11" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P11" s="1" t="str">
+      <c r="P11" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q11" s="1" t="str">
+      <c r="Q11" s="4" t="str">
         <v>鸣人</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>0</v>
       </c>
       <c r="S11" s="2"/>
@@ -1366,55 +1400,55 @@
       <c r="A12" s="2">
         <v>10008</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
       <c r="C12" s="2">
         <v>218730</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>218730</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>121409</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>135892</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="H12" s="5" t="str">
         <v>EE5F536B4DD23D7B7684669580687A3C</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>200000</v>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="8" t="str">
         <v>182102</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>117403</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>42821</v>
       </c>
-      <c r="N12" s="1" t="str">
+      <c r="N12" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O12" s="1" t="str">
+      <c r="O12" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P12" s="1" t="str">
+      <c r="P12" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q12" s="7" t="str">
+      <c r="Q12" s="5" t="str">
         <v>未来战士</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="5">
         <v>0</v>
       </c>
       <c r="S12" s="2"/>
@@ -1424,7 +1458,7 @@
       <c r="A13" s="2">
         <v>10009</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1586,47 +1620,47 @@
       <c r="C13" s="2">
         <v>210791</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>121409</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>163337</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>10</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>142896</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>5000</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>164634</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>117391</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>42805</v>
       </c>
-      <c r="N13" s="3" t="str">
+      <c r="N13" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O13" s="3" t="str">
+      <c r="O13" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P13" s="3" t="str">
+      <c r="P13" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" s="1" t="str">
         <v>森林哨兵</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
@@ -1634,7 +1668,7 @@
       <c r="A14" s="2">
         <v>10010</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1834,49 +1868,49 @@
       <c r="C14" s="2">
         <v>221099</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>221099</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>121409</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>135892</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="H14" s="1" t="str">
         <v>90CDCFD5497992D511E6E38B7015C795</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>20000</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>164671</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>117391</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>42818</v>
       </c>
-      <c r="N14" s="3" t="str">
+      <c r="N14" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O14" s="3" t="str">
+      <c r="O14" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P14" s="3" t="str">
+      <c r="P14" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q14" s="3" t="str">
+      <c r="Q14" s="1" t="str">
         <v>索尼克</v>
       </c>
-      <c r="R14" s="5" t="str">
+      <c r="R14" s="9" t="str">
         <v>手枪</v>
       </c>
       <c r="S14" s="2"/>
@@ -1886,7 +1920,7 @@
       <c r="A15" s="2">
         <v>10011</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2086,49 +2120,49 @@
       <c r="C15" s="2">
         <v>43702</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>43702</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>121409</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>142950</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>142901</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>30000</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>164652</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>117391</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>42804</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="N15" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O15" s="1" t="str">
+      <c r="O15" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P15" s="1" t="str">
+      <c r="P15" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q15" s="3" t="str">
+      <c r="Q15" s="1" t="str">
         <v>粉毛怪</v>
       </c>
-      <c r="R15" s="5" t="str">
+      <c r="R15" s="9" t="str">
         <v>信号枪</v>
       </c>
       <c r="S15" s="2"/>
@@ -2138,7 +2172,7 @@
       <c r="A16" s="2">
         <v>10012</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2414,47 +2448,47 @@
       <c r="C16" s="2">
         <v>103067</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>121409</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>135892</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>142918</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>88888</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>164630</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>111092</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>42805</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="N16" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O16" s="1" t="str">
+      <c r="O16" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P16" s="1" t="str">
+      <c r="P16" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="Q16" s="1" t="str">
         <v>纲手</v>
       </c>
-      <c r="R16" s="5" t="str">
+      <c r="R16" s="9" t="str">
         <v>刀</v>
       </c>
       <c r="S16" s="2"/>
@@ -2464,7 +2498,7 @@
       <c r="A17" s="2">
         <v>10013</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2740,47 +2774,47 @@
       <c r="C17" s="2">
         <v>103080</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>121409</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>135892</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>142924</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>88888</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>164626</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>117391</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>42805</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="N17" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O17" s="1" t="str">
+      <c r="O17" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P17" s="1" t="str">
+      <c r="P17" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q17" s="3" t="str">
+      <c r="Q17" s="1" t="str">
         <v>李洛克</v>
       </c>
-      <c r="R17" s="5" t="str">
+      <c r="R17" s="9" t="str">
         <v>刀</v>
       </c>
       <c r="S17" s="2"/>
@@ -2790,7 +2824,7 @@
       <c r="A18" s="2">
         <v>10014</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2914,47 +2948,47 @@
       <c r="C18" s="2">
         <v>103075</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
         <v>121409</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>168828</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>142917</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>166666</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>164648</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>117391</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>42818</v>
       </c>
-      <c r="N18" s="3" t="str">
+      <c r="N18" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O18" s="3" t="str">
+      <c r="O18" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P18" s="3" t="str">
+      <c r="P18" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="Q18" s="1" t="str">
         <v>干柿鬼鲛</v>
       </c>
-      <c r="R18" s="5" t="str">
+      <c r="R18" s="9" t="str">
         <v>镰刀</v>
       </c>
       <c r="S18" s="2"/>
@@ -2964,7 +2998,7 @@
       <c r="A19" s="2">
         <v>10015</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3582,47 +3616,47 @@
       <c r="C19" s="2">
         <v>122946</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
         <v>121409</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>151551</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="1" t="str">
         <v>409EBB1E48B099BDC8F15192C6443591</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>999999</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>54193</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>111092</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>42804</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="N19" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O19" s="1" t="str">
+      <c r="O19" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P19" s="3" t="str">
+      <c r="P19" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q19" s="3" t="str">
+      <c r="Q19" s="1" t="str">
         <v>赛博女孩</v>
       </c>
-      <c r="R19" s="5" t="str">
+      <c r="R19" s="9" t="str">
         <v>镰刀</v>
       </c>
       <c r="S19" s="2"/>
@@ -3632,7 +3666,7 @@
       <c r="A20" s="2">
         <v>10016</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4174,47 +4208,47 @@
       <c r="C20" s="2">
         <v>31710</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
         <v>121409</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>27422</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>142891</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>288888</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>164656</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>111092</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>42804</v>
       </c>
-      <c r="N20" s="3" t="str">
+      <c r="N20" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O20" s="3" t="str">
+      <c r="O20" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P20" s="3" t="str">
+      <c r="P20" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q20" s="3" t="str">
+      <c r="Q20" s="1" t="str">
         <v>黑寡妇</v>
       </c>
-      <c r="R20" s="5" t="str">
+      <c r="R20" s="9" t="str">
         <v>冰封剑</v>
       </c>
       <c r="S20" s="2"/>
@@ -4224,7 +4258,7 @@
       <c r="A21" s="2">
         <v>10017</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4348,47 +4382,47 @@
       <c r="C21" s="2">
         <v>103069</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
         <v>121409</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>13418</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>10</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>142919</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>128888</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>164661</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>117391</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>42804</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="N21" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O21" s="1" t="str">
+      <c r="O21" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P21" s="1" t="str">
+      <c r="P21" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q21" s="3" t="str">
+      <c r="Q21" s="1" t="str">
         <v>怪物爪子</v>
       </c>
-      <c r="R21" s="5" t="str">
+      <c r="R21" s="9" t="str">
         <v>刀</v>
       </c>
       <c r="S21" s="2"/>
@@ -4398,7 +4432,7 @@
       <c r="A22" s="2">
         <v>10018</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4867,46 +4901,46 @@
       <c r="D22" s="2">
         <v>122961</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>121409</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>13418</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>142920</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>688888</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>164654</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>117391</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>42804</v>
       </c>
-      <c r="N22" s="3" t="str">
+      <c r="N22" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O22" s="3" t="str">
+      <c r="O22" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P22" s="3" t="str">
+      <c r="P22" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q22" s="3" t="str">
+      <c r="Q22" s="1" t="str">
         <v>卡卡西</v>
       </c>
-      <c r="R22" s="5"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
@@ -4914,7 +4948,7 @@
       <c r="A23" s="2">
         <v>10019</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5266,44 +5300,44 @@
       <c r="C23" s="2">
         <v>272767</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>121409</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>27421</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>10</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>143231</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>2</v>
       </c>
       <c r="J23" s="2">
         <v>488888</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>164662</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>117391</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>42804</v>
       </c>
-      <c r="N23" s="3" t="str">
+      <c r="N23" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O23" s="3" t="str">
+      <c r="O23" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P23" s="3" t="str">
+      <c r="P23" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q23" s="3" t="str">
+      <c r="Q23" s="1" t="str">
         <v>鼬</v>
       </c>
       <c r="R23" s="2" t="str">
@@ -5316,7 +5350,7 @@
       <c r="A24" s="2">
         <v>10020</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5554,46 +5588,46 @@
       <c r="C24" s="2">
         <v>166941</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>166941</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>121409</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>27421</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>10</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>142915</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>2</v>
       </c>
       <c r="J24" s="2">
         <v>100000</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>164643</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>117391</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>42804</v>
       </c>
-      <c r="N24" s="3" t="str">
+      <c r="N24" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O24" s="3" t="str">
+      <c r="O24" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P24" s="3" t="str">
+      <c r="P24" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q24" s="3" t="str">
+      <c r="Q24" s="1" t="str">
         <v>大蛇丸</v>
       </c>
       <c r="R24" s="2" t="str">
@@ -5606,7 +5640,7 @@
       <c r="A25" s="2">
         <v>10021</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5958,44 +5992,44 @@
       <c r="C25" s="2">
         <v>31712</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
         <v>121409</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>27421</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>10</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H25" s="1" t="str">
         <v>0D2FE7104CD5DE0291C71B964C7C7AAC</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>2</v>
       </c>
       <c r="J25" s="2">
         <v>200000</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>164672</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>111092</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <v>42805</v>
       </c>
-      <c r="N25" s="3" t="str">
+      <c r="N25" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O25" s="3" t="str">
+      <c r="O25" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P25" s="3" t="str">
+      <c r="P25" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q25" s="3" t="str">
+      <c r="Q25" s="1" t="str">
         <v>冰女</v>
       </c>
       <c r="R25" s="2" t="str">
@@ -6008,7 +6042,7 @@
       <c r="A26" s="2">
         <v>10022</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="1" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -6398,46 +6432,46 @@
       <c r="C26" s="2">
         <v>118142</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>118142</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>121409</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>27421</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>10</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>142138</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>2</v>
       </c>
       <c r="J26" s="2">
         <v>200000</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>164689</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>117391</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <v>42805</v>
       </c>
-      <c r="N26" s="3" t="str">
+      <c r="N26" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O26" s="3" t="str">
+      <c r="O26" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P26" s="3" t="str">
+      <c r="P26" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q26" s="3" t="str">
+      <c r="Q26" s="1" t="str">
         <v>兔子</v>
       </c>
       <c r="R26" s="2" t="str">
@@ -6450,51 +6484,51 @@
       <c r="A27" s="2">
         <v>10023</v>
       </c>
-      <c r="B27" s="1" t="str">
+      <c r="B27" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120","moveSpeed":"300"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
       <c r="C27" s="2">
         <v>210651</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
         <v>121409</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>27422</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>10</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>142895</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="7">
+      <c r="J27" s="4"/>
+      <c r="K27" s="5">
         <v>193334</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>117391</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>42805</v>
       </c>
-      <c r="N27" s="1" t="str">
+      <c r="N27" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O27" s="1" t="str">
+      <c r="O27" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P27" s="1" t="str">
+      <c r="P27" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q27" s="1" t="str">
+      <c r="Q27" s="4" t="str">
         <v>洛基</v>
       </c>
-      <c r="R27" s="7" t="str">
+      <c r="R27" s="5" t="str">
         <v>蓝色法杖</v>
       </c>
       <c r="S27" s="2"/>
@@ -6504,7 +6538,7 @@
       <c r="A28" s="2">
         <v>10024</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B28" s="4" t="str">
         <v>{
     "charFightIdelAniId": "117380",
     "infos": [
@@ -7291,45 +7325,45 @@
       <c r="C28" s="2">
         <v>121672</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
         <v>121409</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>31122</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>10</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>141498</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>3</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="7">
+      <c r="J28" s="4"/>
+      <c r="K28" s="5">
         <v>193346</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>117391</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>145912</v>
       </c>
-      <c r="N28" s="1" t="str">
+      <c r="N28" s="4" t="str">
         <v>0|0|10</v>
       </c>
-      <c r="O28" s="1" t="str">
+      <c r="O28" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P28" s="1" t="str">
+      <c r="P28" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q28" s="1" t="str">
+      <c r="Q28" s="4" t="str">
         <v>太阳神</v>
       </c>
-      <c r="R28" s="7" t="str">
+      <c r="R28" s="5" t="str">
         <v>镰刀</v>
       </c>
       <c r="S28" s="2"/>
@@ -7339,7 +7373,7 @@
       <c r="A29" s="2">
         <v>10025</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" s="4" t="str">
         <v>{"charFightIdelAniId":"117403","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400"},{"type":"1","guid":"117382","duration":"1800","hitLength":"500","frontRockLength":"1300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123289","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"600","offsetPos":["280","0","-40"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123287","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"2500","offsetPos":["180","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"360","skillOffsetDis":"0","skillRadius":"320","skillHeight":"230","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
       <c r="C29" s="2">
@@ -7348,44 +7382,44 @@
       <c r="D29" s="2">
         <v>122956</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>121409</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>27421</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>10</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>143229</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="7">
+      <c r="J29" s="4"/>
+      <c r="K29" s="5">
         <v>193349</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>117403</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>42828</v>
       </c>
-      <c r="N29" s="1" t="str">
+      <c r="N29" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O29" s="1" t="str">
+      <c r="O29" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P29" s="1" t="str">
+      <c r="P29" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q29" s="1" t="str">
+      <c r="Q29" s="4" t="str">
         <v>宇智波斑</v>
       </c>
-      <c r="R29" s="7" t="str">
+      <c r="R29" s="5" t="str">
         <v>恶魔剑</v>
       </c>
       <c r="S29" s="2"/>
@@ -7395,51 +7429,51 @@
       <c r="A30" s="2">
         <v>10026</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B30" s="4" t="str">
         <v>{"charFightIdelAniId":"111095","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"1","guid":"111102","duration":"600","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-15","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111100","duration":"1100","hitLength":"300","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116455","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
       <c r="C30" s="2">
         <v>103068</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
         <v>121409</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>27422</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>142255</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>3</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="7">
+      <c r="J30" s="4"/>
+      <c r="K30" s="5">
         <v>193336</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>111095</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>145907</v>
       </c>
-      <c r="N30" s="1" t="str">
+      <c r="N30" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O30" s="1" t="str">
+      <c r="O30" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P30" s="1" t="str">
+      <c r="P30" s="4" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="Q30" s="1" t="str">
+      <c r="Q30" s="4" t="str">
         <v>纳米机甲女性</v>
       </c>
-      <c r="R30" s="7" t="str">
+      <c r="R30" s="5" t="str">
         <v>剑</v>
       </c>
       <c r="S30" s="2"/>
@@ -7449,53 +7483,53 @@
       <c r="A31" s="2">
         <v>10027</v>
       </c>
-      <c r="B31" s="1" t="str">
+      <c r="B31" s="4" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
       <c r="C31" s="2">
         <v>103083</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>103083</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>121409</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>31122</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>10</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>142903</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>3</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="7">
+      <c r="J31" s="4"/>
+      <c r="K31" s="5">
         <v>193344</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>121951</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>136966</v>
       </c>
-      <c r="N31" s="1" t="str">
+      <c r="N31" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O31" s="1" t="str">
+      <c r="O31" s="4" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="P31" s="1" t="str">
+      <c r="P31" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q31" s="1" t="str">
+      <c r="Q31" s="4" t="str">
         <v>死侍</v>
       </c>
-      <c r="R31" s="7" t="str">
+      <c r="R31" s="5" t="str">
         <v>镰刀</v>
       </c>
       <c r="S31" s="2"/>
@@ -7505,53 +7539,53 @@
       <c r="A32" s="2">
         <v>10028</v>
       </c>
-      <c r="B32" s="1" t="str">
+      <c r="B32" s="4" t="str">
         <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
       <c r="C32" s="2">
         <v>198698</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>198698</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>121409</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>31122</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>10</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>142293</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>3</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="7">
+      <c r="J32" s="4"/>
+      <c r="K32" s="5">
         <v>193341</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>121951</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>145913</v>
       </c>
-      <c r="N32" s="1" t="str">
+      <c r="N32" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O32" s="1" t="str">
+      <c r="O32" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P32" s="1" t="str">
+      <c r="P32" s="4" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="Q32" s="7" t="str">
+      <c r="Q32" s="5" t="str">
         <v>火山哨兵</v>
       </c>
-      <c r="R32" s="9" t="str" xml:space="preserve">
+      <c r="R32" s="12" t="str" xml:space="preserve">
         <v>  荧光剑</v>
       </c>
       <c r="S32" s="2"/>
@@ -7561,51 +7595,51 @@
       <c r="A33" s="2">
         <v>10029</v>
       </c>
-      <c r="B33" s="1" t="str">
+      <c r="B33" s="4" t="str">
         <v>{"charFightIdelAniId":"111092","infos":[{"type":"1","guid":"111094","duration":"900","hitLength":"550","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["155","13","27"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111098","duration":"900","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","-10"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111099","duration":"1900","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113921","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-180","skillRadius":"0","skillHeight":"80","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"111097","duration":"1900","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113920","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","0"],"offsetRotation":["35","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
       <c r="C33" s="2">
         <v>29057</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
         <v>121409</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>31122</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="4">
         <v>10</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>142262</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="5">
         <v>3</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
         <v>193348</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="4">
         <v>111092</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="4">
         <v>42816</v>
       </c>
-      <c r="N33" s="1" t="str">
+      <c r="N33" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O33" s="1" t="str">
+      <c r="O33" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P33" s="1" t="str">
+      <c r="P33" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q33" s="1" t="str">
+      <c r="Q33" s="4" t="str">
         <v>绯红女巫</v>
       </c>
-      <c r="R33" s="9" t="str">
+      <c r="R33" s="12" t="str">
         <v>狂热剑</v>
       </c>
       <c r="S33" s="2"/>
@@ -7615,53 +7649,53 @@
       <c r="A34" s="2">
         <v>10030</v>
       </c>
-      <c r="B34" s="1" t="str">
+      <c r="B34" s="4" t="str">
         <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
       <c r="C34" s="2">
         <v>272130</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>272130</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>121409</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>135892</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <v>10</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>142894</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <v>3</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
         <v>193351</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="4">
         <v>125369</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="4">
         <v>42818</v>
       </c>
-      <c r="N34" s="1" t="str">
+      <c r="N34" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O34" s="1" t="str">
+      <c r="O34" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P34" s="1" t="str">
+      <c r="P34" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q34" s="1" t="str">
+      <c r="Q34" s="4" t="str">
         <v>雷神</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34" s="6">
         <v>0</v>
       </c>
       <c r="S34" s="2"/>
@@ -7671,51 +7705,51 @@
       <c r="A35" s="2">
         <v>10031</v>
       </c>
-      <c r="B35" s="1" t="str">
+      <c r="B35" s="4" t="str">
         <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
       </c>
       <c r="C35" s="2">
         <v>300436</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
         <v>121409</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>27421</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="4">
         <v>10</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>142907</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="5">
         <v>3</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
         <v>193350</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="4">
         <v>125369</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="4">
         <v>42804</v>
       </c>
-      <c r="N35" s="1" t="str">
+      <c r="N35" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O35" s="1" t="str">
+      <c r="O35" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P35" s="1" t="str">
+      <c r="P35" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q35" s="1" t="str">
+      <c r="Q35" s="4" t="str">
         <v>蜘蛛侠</v>
       </c>
-      <c r="R35" s="8" t="str">
+      <c r="R35" s="6" t="str">
         <v>木法杖</v>
       </c>
       <c r="S35" s="2"/>
@@ -7725,51 +7759,51 @@
       <c r="A36" s="2">
         <v>10032</v>
       </c>
-      <c r="B36" s="1" t="str">
+      <c r="B36" s="4" t="str">
         <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
       </c>
       <c r="C36" s="2">
         <v>121541</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
         <v>121409</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="4">
         <v>89089</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>142294</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="7">
+      <c r="J36" s="4"/>
+      <c r="K36" s="5">
         <v>193332</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="4">
         <v>121610</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="4">
         <v>42805</v>
       </c>
-      <c r="N36" s="1" t="str">
+      <c r="N36" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O36" s="1" t="str">
+      <c r="O36" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P36" s="1" t="str">
+      <c r="P36" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q36" s="1" t="str">
+      <c r="Q36" s="4" t="str">
         <v>女浩克</v>
       </c>
-      <c r="R36" s="8" t="str">
+      <c r="R36" s="6" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="S36" s="2"/>
@@ -7779,51 +7813,51 @@
       <c r="A37" s="2">
         <v>10033</v>
       </c>
-      <c r="B37" s="1" t="str">
+      <c r="B37" s="4" t="str">
         <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
       </c>
       <c r="C37" s="2">
         <v>122950</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
         <v>121409</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
         <v>89089</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="4">
         <v>10</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="5">
         <v>142897</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="4">
         <v>3</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="7">
+      <c r="J37" s="4"/>
+      <c r="K37" s="5">
         <v>193342</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="4">
         <v>121610</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="4">
         <v>42805</v>
       </c>
-      <c r="N37" s="1" t="str">
+      <c r="N37" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O37" s="1" t="str">
+      <c r="O37" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P37" s="1" t="str">
+      <c r="P37" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q37" s="1" t="str">
+      <c r="Q37" s="4" t="str">
         <v>绿巨人</v>
       </c>
-      <c r="R37" s="8" t="str">
+      <c r="R37" s="6" t="str">
         <v>盾</v>
       </c>
       <c r="S37" s="2"/>
@@ -7833,51 +7867,51 @@
       <c r="A38" s="2">
         <v>10034</v>
       </c>
-      <c r="B38" s="1" t="str">
+      <c r="B38" s="4" t="str">
         <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
       </c>
       <c r="C38" s="2">
         <v>31734</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
         <v>121409</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <v>27421</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="4">
         <v>10</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="5">
         <v>142272</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="4">
         <v>3</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="7">
+      <c r="J38" s="4"/>
+      <c r="K38" s="5">
         <v>193347</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="4">
         <v>108371</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="4">
         <v>42818</v>
       </c>
-      <c r="N38" s="1" t="str">
+      <c r="N38" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O38" s="1" t="str">
+      <c r="O38" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P38" s="1" t="str">
+      <c r="P38" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q38" s="1" t="str">
+      <c r="Q38" s="4" t="str">
         <v>机甲少女</v>
       </c>
-      <c r="R38" s="5" t="str">
+      <c r="R38" s="9" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="S38" s="2"/>
@@ -7887,53 +7921,53 @@
       <c r="A39" s="2">
         <v>10035</v>
       </c>
-      <c r="B39" s="1" t="str">
+      <c r="B39" s="4" t="str">
         <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
       </c>
       <c r="C39" s="2">
         <v>155702</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>155702</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="4">
         <v>121409</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="4">
         <v>135892</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="4">
         <v>10</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="5">
         <v>142913</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="4">
         <v>3</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="7">
+      <c r="J39" s="4"/>
+      <c r="K39" s="5">
         <v>193339</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="4">
         <v>117340</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="4">
         <v>42816</v>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="N39" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O39" s="1" t="str">
+      <c r="O39" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P39" s="1" t="str">
+      <c r="P39" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q39" s="1" t="str">
+      <c r="Q39" s="4" t="str">
         <v>雏田</v>
       </c>
-      <c r="R39" s="5" t="str">
+      <c r="R39" s="9" t="str">
         <v>散弹喷枪</v>
       </c>
       <c r="S39" s="2"/>
@@ -7943,53 +7977,53 @@
       <c r="A40" s="2">
         <v>10036</v>
       </c>
-      <c r="B40" s="1" t="str">
+      <c r="B40" s="4" t="str">
         <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
       </c>
       <c r="C40" s="2">
         <v>122726</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>122726</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="4">
         <v>121409</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>135892</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="4">
         <v>10</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="5">
         <v>142922</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="4">
         <v>3</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="7">
+      <c r="J40" s="4"/>
+      <c r="K40" s="5">
         <v>193353</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="4">
         <v>122541</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="4">
         <v>42804</v>
       </c>
-      <c r="N40" s="1" t="str">
+      <c r="N40" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O40" s="1" t="str">
+      <c r="O40" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P40" s="1" t="str">
+      <c r="P40" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q40" s="1" t="str">
+      <c r="Q40" s="4" t="str">
         <v>路飞</v>
       </c>
-      <c r="R40" s="5" t="str">
+      <c r="R40" s="9" t="str">
         <v>火枪</v>
       </c>
       <c r="S40" s="2"/>
@@ -7999,51 +8033,51 @@
       <c r="A41" s="2">
         <v>10037</v>
       </c>
-      <c r="B41" s="1" t="str">
+      <c r="B41" s="4" t="str">
         <v>{"charFightIdelAniId":"125369","infos":[{"type":"1","guid":"117326","duration":"500","hitLength":"200","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"300","offsetPos":["60","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["0.5","0.5","0.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"117328","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130639","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"300","offsetPos":["0","0","0"],"offsetRotation":["30","40","-48"],"offsetScale":["0.6","0.6","0.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"100","skillWidth":"80"},{"type":"1","guid":"117327","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["-1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"450"},{"type":"1","guid":"117316","duration":"800","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"100","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120"},{"type":"1","guid":"117315","duration":"800","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["-50","0","0"],"offsetRotation":["-140","0","-270"],"offsetScale":["1","1.5","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["250","50","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1200","offsetPos":["380","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1200","offsetPos":["500","50","-80s"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"400","skillLength":"500","skillWidth":"150"},{"type":"1","guid":"117324","duration":"1600","hitLength":"1100","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"114161","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"700","offsetPos":["0","0","-75"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130743","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130640","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1050","slotIndex":"-1","stopTime":"1500","offsetPos":["600","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"150","skillLength":"550","skillWidth":"150"}]}</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>297029</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
         <v>121409</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>135892</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="4">
         <v>10</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="5">
         <v>143236</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="4">
         <v>3</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="7">
+      <c r="J41" s="4"/>
+      <c r="K41" s="5">
         <v>193335</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="4">
         <v>125369</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="4">
         <v>42818</v>
       </c>
-      <c r="N41" s="1" t="str">
+      <c r="N41" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O41" s="1" t="str">
+      <c r="O41" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P41" s="1" t="str">
+      <c r="P41" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q41" s="1" t="str">
+      <c r="Q41" s="4" t="str">
         <v>佐助</v>
       </c>
-      <c r="R41" s="5" t="str">
+      <c r="R41" s="9" t="str">
         <v>紫光剑</v>
       </c>
       <c r="S41" s="2"/>
@@ -8053,53 +8087,53 @@
       <c r="A42" s="2">
         <v>10038</v>
       </c>
-      <c r="B42" s="1" t="str">
+      <c r="B42" s="4" t="str">
         <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
       </c>
       <c r="C42" s="2">
         <v>222534</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>222534</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="4">
         <v>121409</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>27421</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="4">
         <v>10</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="5">
         <v>142310</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="4">
         <v>3</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="7">
+      <c r="J42" s="4"/>
+      <c r="K42" s="5">
         <v>193354</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="4">
         <v>117391</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="4">
         <v>42804</v>
       </c>
-      <c r="N42" s="1" t="str">
+      <c r="N42" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O42" s="1" t="str">
+      <c r="O42" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P42" s="1" t="str">
+      <c r="P42" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q42" s="1" t="str">
+      <c r="Q42" s="4" t="str">
         <v>天神</v>
       </c>
-      <c r="R42" s="5" t="str">
+      <c r="R42" s="9" t="str">
         <v>激光枪</v>
       </c>
       <c r="S42" s="2"/>
@@ -8109,53 +8143,53 @@
       <c r="A43" s="2">
         <v>10039</v>
       </c>
-      <c r="B43" s="1" t="str">
+      <c r="B43" s="4" t="str">
         <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
       </c>
       <c r="C43" s="2">
         <v>269895</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>269895</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="4">
         <v>121409</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
         <v>151551</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="5">
         <v>142892</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="5">
         <v>3</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5">
         <v>193352</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="4">
         <v>121608</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="4">
         <v>42804</v>
       </c>
-      <c r="N43" s="1" t="str">
+      <c r="N43" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O43" s="1" t="str">
+      <c r="O43" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P43" s="1" t="str">
+      <c r="P43" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q43" s="1" t="str">
+      <c r="Q43" s="4" t="str">
         <v>金刚狼</v>
       </c>
-      <c r="R43" s="8" t="str">
+      <c r="R43" s="6" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="S43" s="2"/>
@@ -8165,7 +8199,7 @@
       <c r="A44" s="2">
         <v>10040</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -8707,51 +8741,4545 @@
       <c r="C44" s="2">
         <v>122720</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="4">
         <v>122720</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="4">
         <v>121409</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="4">
         <v>135892</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="4">
         <v>10</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="5">
         <v>142888</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="5">
         <v>3</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
         <v>193355</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="4">
         <v>117391</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="4">
         <v>42804</v>
       </c>
-      <c r="N44" s="1" t="str">
+      <c r="N44" s="4" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O44" s="1" t="str">
+      <c r="O44" s="4" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P44" s="1" t="str">
+      <c r="P44" s="4" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q44" s="1" t="str">
+      <c r="Q44" s="4" t="str">
         <v>钢铁侠</v>
       </c>
-      <c r="R44" s="8" t="str">
+      <c r="R44" s="6" t="str">
         <v>激光枪</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="7">
+        <v>10041</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120","moveSpeed":"300"}]}</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <v>81F9867944A6560D453B23AAF7852255</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
+        <v>121409</v>
+      </c>
+      <c r="F45" s="4">
+        <v>27421</v>
+      </c>
+      <c r="G45" s="4">
+        <v>10</v>
+      </c>
+      <c r="H45" s="5">
+        <v>142932</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+      <c r="J45" s="4">
+        <v>6666</v>
+      </c>
+      <c r="K45" s="8" t="str">
+        <v>193337</v>
+      </c>
+      <c r="L45" s="4">
+        <v>117391</v>
+      </c>
+      <c r="M45" s="4">
+        <v>42830</v>
+      </c>
+      <c r="N45" s="4" t="str">
+        <v>0|0|-20</v>
+      </c>
+      <c r="O45" s="4" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P45" s="4" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q45" s="7" t="str">
+        <v>金箍棒(粉)</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="7">
+        <v>10042</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220","moveSpeed":"300"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"85152","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120","moveSpeed":"300"}]}</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>B8A5C22D492E7B11AACB6F82011686C8</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <v>121409</v>
+      </c>
+      <c r="F46" s="4">
+        <v>27421</v>
+      </c>
+      <c r="G46" s="4">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5">
+        <v>142932</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>6666</v>
+      </c>
+      <c r="K46" s="8" t="str">
+        <v>193337</v>
+      </c>
+      <c r="L46" s="4">
+        <v>117391</v>
+      </c>
+      <c r="M46" s="4">
+        <v>42830</v>
+      </c>
+      <c r="N46" s="4" t="str">
+        <v>0|0|-20</v>
+      </c>
+      <c r="O46" s="4" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P46" s="4" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q46" s="7" t="str">
+        <v>金箍棒(紫)</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="7">
+        <v>10043</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <v>C66D1D35417FB7A43F09159F77CAB8F8</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <v>121409</v>
+      </c>
+      <c r="F47" s="4">
+        <v>135892</v>
+      </c>
+      <c r="G47" s="4">
+        <v>10</v>
+      </c>
+      <c r="H47" s="5">
+        <v>142894</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5">
+        <v>193351</v>
+      </c>
+      <c r="L47" s="4">
+        <v>125369</v>
+      </c>
+      <c r="M47" s="4">
+        <v>42818</v>
+      </c>
+      <c r="N47" s="4" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O47" s="4" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P47" s="4" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q47" s="10" t="str">
+        <v>昊天锤</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="2"/>
+      <c r="T204" s="2"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
+      <c r="O226" s="4"/>
+      <c r="P226" s="4"/>
+      <c r="Q226" s="4"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
+      <c r="O227" s="4"/>
+      <c r="P227" s="4"/>
+      <c r="Q227" s="4"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
+      <c r="O228" s="4"/>
+      <c r="P228" s="4"/>
+      <c r="Q228" s="4"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
+      <c r="O230" s="4"/>
+      <c r="P230" s="4"/>
+      <c r="Q230" s="4"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
+      <c r="O231" s="4"/>
+      <c r="P231" s="4"/>
+      <c r="Q231" s="4"/>
+      <c r="R231" s="6"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
+      <c r="O232" s="4"/>
+      <c r="P232" s="4"/>
+      <c r="Q232" s="4"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
+      <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="4"/>
+      <c r="M234" s="4"/>
+      <c r="N234" s="4"/>
+      <c r="O234" s="4"/>
+      <c r="P234" s="4"/>
+      <c r="Q234" s="4"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
+      <c r="O235" s="4"/>
+      <c r="P235" s="4"/>
+      <c r="Q235" s="4"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="4"/>
+      <c r="O236" s="4"/>
+      <c r="P236" s="4"/>
+      <c r="Q236" s="4"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="4"/>
+      <c r="O237" s="4"/>
+      <c r="P237" s="4"/>
+      <c r="Q237" s="4"/>
+      <c r="R237" s="6"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="4"/>
+      <c r="O238" s="4"/>
+      <c r="P238" s="4"/>
+      <c r="Q238" s="4"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="4"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="4"/>
+      <c r="O239" s="4"/>
+      <c r="P239" s="4"/>
+      <c r="Q239" s="4"/>
+      <c r="R239" s="6"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="4"/>
+      <c r="O240" s="4"/>
+      <c r="P240" s="4"/>
+      <c r="Q240" s="4"/>
+      <c r="R240" s="6"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="4"/>
+      <c r="O241" s="4"/>
+      <c r="P241" s="4"/>
+      <c r="Q241" s="4"/>
+      <c r="R241" s="6"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="6"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="4"/>
+      <c r="O243" s="4"/>
+      <c r="P243" s="4"/>
+      <c r="Q243" s="4"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="4"/>
+      <c r="O244" s="4"/>
+      <c r="P244" s="4"/>
+      <c r="Q244" s="4"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/infinite/Excel/ColdWeapon_冷兵器表.xlsx
+++ b/infinite/Excel/ColdWeapon_冷兵器表.xlsx
@@ -76,6 +76,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFF14BA9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,21 +111,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,7 +125,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,28 +277,28 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
@@ -652,16 +652,16 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="6" t="str">
         <v>string</v>
       </c>
       <c r="E1" s="3" t="str">
@@ -670,34 +670,34 @@
       <c r="F1" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="5" t="str">
+      <c r="G1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="5" t="str">
+      <c r="H1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="I1" s="5" t="str">
+      <c r="I1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="J1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="K1" s="5" t="str">
+      <c r="K1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="L1" s="5" t="str">
+      <c r="L1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="M1" s="5" t="str">
+      <c r="M1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="N1" s="5" t="str">
+      <c r="N1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="O1" s="5" t="str">
+      <c r="O1" s="6" t="str">
         <v>vector3</v>
       </c>
-      <c r="P1" s="5" t="str">
+      <c r="P1" s="6" t="str">
         <v>vector3</v>
       </c>
       <c r="Q1" s="3" t="str">
@@ -708,13 +708,13 @@
       <c r="T1" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="6" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="6" t="str">
         <v>jsons</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="6" t="str">
         <v>rightWeaponGuid</v>
       </c>
       <c r="D2" s="3" t="str">
@@ -764,13 +764,13 @@
       <c r="T2" s="3"/>
     </row>
     <row customHeight="true" ht="65" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="6" t="str">
         <v>id</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="6" t="str">
         <v>动作数据</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="6" t="str">
         <v>右手装备</v>
       </c>
       <c r="D3" s="3" t="str">
@@ -823,9 +823,9 @@
       <c r="T3" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -873,7 +873,7 @@
       <c r="J5" s="2">
         <v>6666</v>
       </c>
-      <c r="K5" s="12" t="str">
+      <c r="K5" s="11" t="str">
         <v>193337</v>
       </c>
       <c r="L5" s="2">
@@ -894,7 +894,7 @@
       <c r="Q5" s="2" t="str">
         <v>悟空</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="10">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
@@ -1085,7 +1085,7 @@
       <c r="J6" s="2">
         <v>3000</v>
       </c>
-      <c r="K6" s="12" t="str">
+      <c r="K6" s="11" t="str">
         <v>193356</v>
       </c>
       <c r="L6" s="2">
@@ -1106,7 +1106,7 @@
       <c r="Q6" s="2" t="str">
         <v>赛博自来也</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="10">
         <v>0</v>
       </c>
       <c r="S6" s="3"/>
@@ -1141,7 +1141,7 @@
       <c r="J7" s="2">
         <v>8888</v>
       </c>
-      <c r="K7" s="12" t="str">
+      <c r="K7" s="11" t="str">
         <v>193343</v>
       </c>
       <c r="L7" s="2">
@@ -1162,7 +1162,7 @@
       <c r="Q7" s="2" t="str">
         <v>海王</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="10">
         <v>0</v>
       </c>
       <c r="S7" s="3"/>
@@ -1427,7 +1427,7 @@
       <c r="J12" s="2">
         <v>200000</v>
       </c>
-      <c r="K12" s="12" t="str">
+      <c r="K12" s="11" t="str">
         <v>182102</v>
       </c>
       <c r="L12" s="2">
@@ -1458,7 +1458,7 @@
       <c r="A13" s="3">
         <v>10009</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1620,47 +1620,47 @@
       <c r="C13" s="3">
         <v>210791</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>121409</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>163337</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>10</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>142896</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>2</v>
       </c>
       <c r="J13" s="2">
         <v>5000</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>164634</v>
       </c>
       <c r="L13" s="2">
         <v>117391</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>42805</v>
       </c>
-      <c r="N13" s="6" t="str">
+      <c r="N13" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O13" s="6" t="str">
+      <c r="O13" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P13" s="6" t="str">
+      <c r="P13" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q13" s="6" t="str">
+      <c r="Q13" s="7" t="str">
         <v>森林哨兵</v>
       </c>
-      <c r="R13" s="7"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="A14" s="3">
         <v>10010</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1868,49 +1868,49 @@
       <c r="C14" s="3">
         <v>221099</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>221099</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>121409</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>135892</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="str">
+      <c r="H14" s="7" t="str">
         <v>90CDCFD5497992D511E6E38B7015C795</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>2</v>
       </c>
       <c r="J14" s="2">
         <v>20000</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>164671</v>
       </c>
       <c r="L14" s="2">
         <v>117391</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <v>42818</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="N14" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O14" s="6" t="str">
+      <c r="O14" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P14" s="6" t="str">
+      <c r="P14" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q14" s="6" t="str">
+      <c r="Q14" s="7" t="str">
         <v>索尼克</v>
       </c>
-      <c r="R14" s="7" t="str">
+      <c r="R14" s="8" t="str">
         <v>手枪</v>
       </c>
       <c r="S14" s="3"/>
@@ -1920,7 +1920,7 @@
       <c r="A15" s="3">
         <v>10011</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2120,28 +2120,28 @@
       <c r="C15" s="3">
         <v>43702</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>43702</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>121409</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <v>142950</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <v>10</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <v>142901</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <v>2</v>
       </c>
       <c r="J15" s="2">
         <v>30000</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="9">
         <v>164652</v>
       </c>
       <c r="L15" s="2">
@@ -2159,10 +2159,10 @@
       <c r="P15" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q15" s="6" t="str">
+      <c r="Q15" s="7" t="str">
         <v>粉毛怪</v>
       </c>
-      <c r="R15" s="7" t="str">
+      <c r="R15" s="8" t="str">
         <v>信号枪</v>
       </c>
       <c r="S15" s="3"/>
@@ -2172,7 +2172,7 @@
       <c r="A16" s="3">
         <v>10012</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2448,17 +2448,17 @@
       <c r="C16" s="3">
         <v>103067</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>121409</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>135892</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>10</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="7">
         <v>142918</v>
       </c>
       <c r="I16" s="2">
@@ -2467,7 +2467,7 @@
       <c r="J16" s="2">
         <v>88888</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>164630</v>
       </c>
       <c r="L16" s="2">
@@ -2485,10 +2485,10 @@
       <c r="P16" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q16" s="6" t="str">
+      <c r="Q16" s="7" t="str">
         <v>纲手</v>
       </c>
-      <c r="R16" s="7" t="str">
+      <c r="R16" s="8" t="str">
         <v>刀</v>
       </c>
       <c r="S16" s="3"/>
@@ -2498,7 +2498,7 @@
       <c r="A17" s="3">
         <v>10013</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2774,17 +2774,17 @@
       <c r="C17" s="3">
         <v>103080</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>121409</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>135892</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>10</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="7">
         <v>142924</v>
       </c>
       <c r="I17" s="2">
@@ -2793,7 +2793,7 @@
       <c r="J17" s="2">
         <v>88888</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="9">
         <v>164626</v>
       </c>
       <c r="L17" s="2">
@@ -2811,10 +2811,10 @@
       <c r="P17" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q17" s="6" t="str">
+      <c r="Q17" s="7" t="str">
         <v>李洛克</v>
       </c>
-      <c r="R17" s="7" t="str">
+      <c r="R17" s="8" t="str">
         <v>刀</v>
       </c>
       <c r="S17" s="3"/>
@@ -2824,7 +2824,7 @@
       <c r="A18" s="3">
         <v>10014</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2948,17 +2948,17 @@
       <c r="C18" s="3">
         <v>103075</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
         <v>121409</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>168828</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>10</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>142917</v>
       </c>
       <c r="I18" s="2">
@@ -2967,28 +2967,28 @@
       <c r="J18" s="2">
         <v>166666</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="9">
         <v>164648</v>
       </c>
       <c r="L18" s="2">
         <v>117391</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>42818</v>
       </c>
-      <c r="N18" s="6" t="str">
+      <c r="N18" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O18" s="6" t="str">
+      <c r="O18" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P18" s="6" t="str">
+      <c r="P18" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q18" s="6" t="str">
+      <c r="Q18" s="7" t="str">
         <v>干柿鬼鲛</v>
       </c>
-      <c r="R18" s="7" t="str">
+      <c r="R18" s="8" t="str">
         <v>镰刀</v>
       </c>
       <c r="S18" s="3"/>
@@ -2998,7 +2998,7 @@
       <c r="A19" s="3">
         <v>10015</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3616,17 +3616,17 @@
       <c r="C19" s="3">
         <v>122946</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
         <v>121409</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>151551</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>10</v>
       </c>
-      <c r="H19" s="6" t="str">
+      <c r="H19" s="7" t="str">
         <v>409EBB1E48B099BDC8F15192C6443591</v>
       </c>
       <c r="I19" s="2">
@@ -3635,7 +3635,7 @@
       <c r="J19" s="2">
         <v>999999</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <v>54193</v>
       </c>
       <c r="L19" s="2">
@@ -3650,13 +3650,13 @@
       <c r="O19" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P19" s="6" t="str">
+      <c r="P19" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q19" s="6" t="str">
+      <c r="Q19" s="7" t="str">
         <v>赛博女孩</v>
       </c>
-      <c r="R19" s="7" t="str">
+      <c r="R19" s="8" t="str">
         <v>镰刀</v>
       </c>
       <c r="S19" s="3"/>
@@ -3666,7 +3666,7 @@
       <c r="A20" s="3">
         <v>10016</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4208,17 +4208,17 @@
       <c r="C20" s="3">
         <v>31710</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>121409</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>27422</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>10</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="7">
         <v>142891</v>
       </c>
       <c r="I20" s="2">
@@ -4227,7 +4227,7 @@
       <c r="J20" s="2">
         <v>288888</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>164656</v>
       </c>
       <c r="L20" s="2">
@@ -4236,19 +4236,19 @@
       <c r="M20" s="2">
         <v>42804</v>
       </c>
-      <c r="N20" s="6" t="str">
+      <c r="N20" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O20" s="6" t="str">
+      <c r="O20" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P20" s="6" t="str">
+      <c r="P20" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q20" s="6" t="str">
+      <c r="Q20" s="7" t="str">
         <v>黑寡妇</v>
       </c>
-      <c r="R20" s="7" t="str">
+      <c r="R20" s="8" t="str">
         <v>冰封剑</v>
       </c>
       <c r="S20" s="3"/>
@@ -4258,7 +4258,7 @@
       <c r="A21" s="3">
         <v>10017</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4382,17 +4382,17 @@
       <c r="C21" s="3">
         <v>103069</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>121409</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>13418</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>10</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="7">
         <v>142919</v>
       </c>
       <c r="I21" s="2">
@@ -4401,7 +4401,7 @@
       <c r="J21" s="2">
         <v>128888</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>164661</v>
       </c>
       <c r="L21" s="2">
@@ -4419,10 +4419,10 @@
       <c r="P21" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q21" s="6" t="str">
+      <c r="Q21" s="7" t="str">
         <v>怪物爪子</v>
       </c>
-      <c r="R21" s="7" t="str">
+      <c r="R21" s="8" t="str">
         <v>刀</v>
       </c>
       <c r="S21" s="3"/>
@@ -4432,7 +4432,7 @@
       <c r="A22" s="3">
         <v>10018</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4901,25 +4901,25 @@
       <c r="D22" s="3">
         <v>122961</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>121409</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>13418</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>10</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="7">
         <v>142920</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="7">
         <v>2</v>
       </c>
       <c r="J22" s="2">
         <v>688888</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>164654</v>
       </c>
       <c r="L22" s="2">
@@ -4928,19 +4928,19 @@
       <c r="M22" s="2">
         <v>42804</v>
       </c>
-      <c r="N22" s="6" t="str">
+      <c r="N22" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O22" s="6" t="str">
+      <c r="O22" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P22" s="6" t="str">
+      <c r="P22" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q22" s="6" t="str">
+      <c r="Q22" s="7" t="str">
         <v>卡卡西</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="8"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
@@ -4948,7 +4948,7 @@
       <c r="A23" s="3">
         <v>10019</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5300,26 +5300,26 @@
       <c r="C23" s="3">
         <v>272767</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>121409</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>27421</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <v>10</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="7">
         <v>143231</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="7">
         <v>2</v>
       </c>
       <c r="J23" s="3">
         <v>488888</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="9">
         <v>164662</v>
       </c>
       <c r="L23" s="2">
@@ -5328,16 +5328,16 @@
       <c r="M23" s="2">
         <v>42804</v>
       </c>
-      <c r="N23" s="6" t="str">
+      <c r="N23" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O23" s="6" t="str">
+      <c r="O23" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P23" s="6" t="str">
+      <c r="P23" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q23" s="6" t="str">
+      <c r="Q23" s="7" t="str">
         <v>鼬</v>
       </c>
       <c r="R23" s="3" t="str">
@@ -5350,7 +5350,7 @@
       <c r="A24" s="3">
         <v>10020</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B24" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5588,28 +5588,28 @@
       <c r="C24" s="3">
         <v>166941</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>166941</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>121409</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>27421</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>10</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="7">
         <v>142915</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="7">
         <v>2</v>
       </c>
       <c r="J24" s="3">
         <v>100000</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="9">
         <v>164643</v>
       </c>
       <c r="L24" s="2">
@@ -5618,16 +5618,16 @@
       <c r="M24" s="2">
         <v>42804</v>
       </c>
-      <c r="N24" s="6" t="str">
+      <c r="N24" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O24" s="6" t="str">
+      <c r="O24" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P24" s="6" t="str">
+      <c r="P24" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q24" s="6" t="str">
+      <c r="Q24" s="7" t="str">
         <v>大蛇丸</v>
       </c>
       <c r="R24" s="3" t="str">
@@ -5640,7 +5640,7 @@
       <c r="A25" s="3">
         <v>10021</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5992,44 +5992,44 @@
       <c r="C25" s="3">
         <v>31712</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>121409</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>27421</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>10</v>
       </c>
-      <c r="H25" s="6" t="str">
+      <c r="H25" s="7" t="str">
         <v>0D2FE7104CD5DE0291C71B964C7C7AAC</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="7">
         <v>2</v>
       </c>
       <c r="J25" s="3">
         <v>200000</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="7">
         <v>164672</v>
       </c>
       <c r="L25" s="2">
         <v>111092</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="7">
         <v>42805</v>
       </c>
-      <c r="N25" s="6" t="str">
+      <c r="N25" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O25" s="6" t="str">
+      <c r="O25" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P25" s="6" t="str">
+      <c r="P25" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q25" s="6" t="str">
+      <c r="Q25" s="7" t="str">
         <v>冰女</v>
       </c>
       <c r="R25" s="3" t="str">
@@ -6042,7 +6042,7 @@
       <c r="A26" s="3">
         <v>10022</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="7" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -6432,46 +6432,46 @@
       <c r="C26" s="3">
         <v>118142</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>118142</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>121409</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>27421</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>10</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="7">
         <v>142138</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="7">
         <v>2</v>
       </c>
       <c r="J26" s="3">
         <v>200000</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>164689</v>
       </c>
       <c r="L26" s="2">
         <v>117391</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="7">
         <v>42805</v>
       </c>
-      <c r="N26" s="6" t="str">
+      <c r="N26" s="7" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="O26" s="6" t="str">
+      <c r="O26" s="7" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P26" s="6" t="str">
+      <c r="P26" s="7" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q26" s="6" t="str">
+      <c r="Q26" s="7" t="str">
         <v>兔子</v>
       </c>
       <c r="R26" s="3" t="str">
@@ -7385,7 +7385,7 @@
       <c r="E29" s="2">
         <v>121409</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="7">
         <v>27421</v>
       </c>
       <c r="G29" s="2">
@@ -7585,7 +7585,7 @@
       <c r="Q32" s="1" t="str">
         <v>火山哨兵</v>
       </c>
-      <c r="R32" s="11" t="str" xml:space="preserve">
+      <c r="R32" s="5" t="str" xml:space="preserve">
         <v>  荧光剑</v>
       </c>
       <c r="S32" s="3"/>
@@ -7639,7 +7639,7 @@
       <c r="Q33" s="2" t="str">
         <v>绯红女巫</v>
       </c>
-      <c r="R33" s="11" t="str">
+      <c r="R33" s="5" t="str">
         <v>狂热剑</v>
       </c>
       <c r="S33" s="3"/>
@@ -7911,7 +7911,7 @@
       <c r="Q38" s="2" t="str">
         <v>机甲少女</v>
       </c>
-      <c r="R38" s="7" t="str">
+      <c r="R38" s="8" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="S38" s="3"/>
@@ -7967,7 +7967,7 @@
       <c r="Q39" s="2" t="str">
         <v>雏田</v>
       </c>
-      <c r="R39" s="7" t="str">
+      <c r="R39" s="8" t="str">
         <v>散弹喷枪</v>
       </c>
       <c r="S39" s="3"/>
@@ -8023,7 +8023,7 @@
       <c r="Q40" s="2" t="str">
         <v>路飞</v>
       </c>
-      <c r="R40" s="7" t="str">
+      <c r="R40" s="8" t="str">
         <v>火枪</v>
       </c>
       <c r="S40" s="3"/>
@@ -8077,7 +8077,7 @@
       <c r="Q41" s="2" t="str">
         <v>佐助</v>
       </c>
-      <c r="R41" s="7" t="str">
+      <c r="R41" s="8" t="str">
         <v>紫光剑</v>
       </c>
       <c r="S41" s="3"/>
@@ -8133,7 +8133,7 @@
       <c r="Q42" s="2" t="str">
         <v>天神</v>
       </c>
-      <c r="R42" s="7" t="str">
+      <c r="R42" s="8" t="str">
         <v>激光枪</v>
       </c>
       <c r="S42" s="3"/>
@@ -8788,7 +8788,7 @@
       <c r="T44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <v>10041</v>
       </c>
       <c r="B45" s="2" t="str">
@@ -8816,7 +8816,7 @@
       <c r="J45" s="2">
         <v>6666</v>
       </c>
-      <c r="K45" s="12" t="str">
+      <c r="K45" s="11" t="str">
         <v>193337</v>
       </c>
       <c r="L45" s="2">
@@ -8834,7 +8834,7 @@
       <c r="P45" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q45" s="9" t="str">
+      <c r="Q45" s="12" t="str">
         <v>金箍棒(粉)</v>
       </c>
       <c r="R45" s="4"/>
@@ -8842,7 +8842,7 @@
       <c r="T45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="9">
+      <c r="A46" s="12">
         <v>10042</v>
       </c>
       <c r="B46" s="2" t="str">
@@ -8870,7 +8870,7 @@
       <c r="J46" s="2">
         <v>6666</v>
       </c>
-      <c r="K46" s="12" t="str">
+      <c r="K46" s="11" t="str">
         <v>193337</v>
       </c>
       <c r="L46" s="2">
@@ -8888,7 +8888,7 @@
       <c r="P46" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q46" s="9" t="str">
+      <c r="Q46" s="12" t="str">
         <v>金箍棒(紫)</v>
       </c>
       <c r="R46" s="4"/>
@@ -8896,7 +8896,7 @@
       <c r="T46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="9">
+      <c r="A47" s="12">
         <v>10043</v>
       </c>
       <c r="B47" s="2" t="str">
@@ -8940,7 +8940,7 @@
       <c r="P47" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="Q47" s="10" t="str">
+      <c r="Q47" s="13" t="str">
         <v>昊天锤</v>
       </c>
       <c r="R47" s="4"/>
@@ -8993,7 +8993,7 @@
       <c r="Q48" s="2" t="str">
         <v>天神</v>
       </c>
-      <c r="R48" s="7" t="str">
+      <c r="R48" s="8" t="str">
         <v>激光枪</v>
       </c>
       <c r="S48" s="3"/>
@@ -9045,52 +9045,724 @@
       <c r="Q49" s="2" t="str">
         <v>机甲少女</v>
       </c>
-      <c r="R49" s="7" t="str">
+      <c r="R49" s="8" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
-    <row r="50">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+    <row customHeight="true" ht="19" r="50">
+      <c r="A50" s="12">
+        <v>10046</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <v>{
+    "charFightIdelAniId": "",
+    "infos": [
+        {
+            "type": "1",
+            "guid": "85125",
+            "duration": "600",
+            "hitLength": "300",
+            "frontRockLength": "400",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "4",
+            "guid": "47870",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0|0|0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "2",
+            "guid": "92821",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "350",
+            "slotIndex": "-1",
+            "stopTime": "400",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "180",
+                "30",
+                "70"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "FF963FFF",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "100",
+            "skillLength": "120",
+            "skillWidth": "220",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "1",
+            "guid": "20267",
+            "duration": "600",
+            "hitLength": "300",
+            "frontRockLength": "400",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "4",
+            "guid": "47870",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0|0|0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "2",
+            "guid": "92821",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "250",
+            "slotIndex": "-1",
+            "stopTime": "400",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "-90",
+                "20",
+                "0"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "FF963FFF",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "150",
+            "skillLength": "150",
+            "skillWidth": "120",
+            "moveSpeed": "300"
+        }
+    ]
+}</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
+      <c r="E50" s="2">
+        <v>121409</v>
+      </c>
+      <c r="F50" s="2">
+        <v>27421</v>
+      </c>
+      <c r="G50" s="2">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>142310</v>
+      </c>
+      <c r="I50" s="2">
+        <v>3</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="1">
+        <v>193354</v>
+      </c>
+      <c r="L50" s="2">
+        <v>117391</v>
+      </c>
+      <c r="M50" s="2">
+        <v>42804</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P50" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <v>92821-自动攻击拳(男)</v>
+      </c>
       <c r="R50" s="4"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
+    <row customHeight="true" ht="19" r="51">
+      <c r="A51" s="3">
+        <v>10047</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <v>{
+    "charFightIdelAniId": "",
+    "infos": [
+        {
+            "type": "1",
+            "guid": "85125",
+            "duration": "600",
+            "hitLength": "300",
+            "frontRockLength": "400",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "4",
+            "guid": "47870",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0|0|0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "2",
+            "guid": "168946",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "350",
+            "slotIndex": "-1",
+            "stopTime": "400",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "180",
+                "30",
+                "70"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "100",
+            "skillLength": "120",
+            "skillWidth": "220",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "1",
+            "guid": "20267",
+            "duration": "600",
+            "hitLength": "300",
+            "frontRockLength": "400",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "4",
+            "guid": "47870",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0|0|0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "2",
+            "guid": "168946",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "250",
+            "slotIndex": "-1",
+            "stopTime": "400",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "-90",
+                "20",
+                "0"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "0",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "150",
+            "skillLength": "150",
+            "skillWidth": "120",
+            "moveSpeed": "300"
+        }
+    ]
+}</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
+      <c r="E51" s="2">
+        <v>121409</v>
+      </c>
+      <c r="F51" s="2">
+        <v>27421</v>
+      </c>
+      <c r="G51" s="2">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>142310</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="1">
+        <v>193354</v>
+      </c>
+      <c r="L51" s="2">
+        <v>117391</v>
+      </c>
+      <c r="M51" s="2">
+        <v>42804</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <v>168946-自动攻击拳(女)</v>
+      </c>
       <c r="R51" s="4"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
